--- a/Matrix.xlsx
+++ b/Matrix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mateusz.Bartosik\PycharmProjects\Wyceny\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mateusz Bartosik\Projekty python\SystemWycen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{498213CF-EC38-465F-824A-88D04ED240C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D99E7B76-1486-47B5-BE10-3694DA1C309A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,6 +30,9 @@
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -502,8 +505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AW49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B43" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+    <sheetView tabSelected="1" topLeftCell="N11" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="Z25" sqref="Z25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -669,145 +672,145 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>212</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>386</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>433</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>135</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>285</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>127</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>277</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>203</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>127</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>187</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>243</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>281</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>191</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>306</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>192</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>267</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>352</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>171</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>254</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>307</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>310</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>365</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>332</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>429</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>376</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>520</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>563</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>538</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>376</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>557</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>225</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>188</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>161</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>113</v>
+        <v>0</v>
       </c>
       <c r="AS3">
-        <v>262</v>
+        <v>0</v>
       </c>
       <c r="AT3">
-        <v>486</v>
+        <v>0</v>
       </c>
       <c r="AU3">
-        <v>116</v>
+        <v>0</v>
       </c>
       <c r="AV3">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="AW3">
-        <v>264</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:49" x14ac:dyDescent="0.3">
@@ -815,145 +818,145 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>-31</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>179</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>342</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>114</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>384</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>244</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>204</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>234</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>171</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>143</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>214</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>248</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>161</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>261</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>147</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>227</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>312</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>106</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>224</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>271</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>274</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>324</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>282</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>395</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>334</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>458</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>509</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>485</v>
+        <v>0</v>
       </c>
       <c r="AL4">
-        <v>337</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>498</v>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>189</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>165</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="AR4">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AS4">
-        <v>231</v>
+        <v>0</v>
       </c>
       <c r="AT4">
-        <v>433</v>
+        <v>0</v>
       </c>
       <c r="AU4">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="AV4">
-        <v>279</v>
+        <v>0</v>
       </c>
       <c r="AW4">
-        <v>224</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.3">
@@ -961,145 +964,145 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>-31</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>282</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>173</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>152</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>183</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>132</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>-11</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>164</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>191</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>121</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>193</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>106</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>167</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>207</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>212</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>237</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>218</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>285</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>248</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>317</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>355</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>344</v>
+        <v>0</v>
       </c>
       <c r="AL5">
-        <v>257</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>334</v>
+        <v>0</v>
       </c>
       <c r="AN5">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AO5">
-        <v>147</v>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <v>124</v>
+        <v>0</v>
       </c>
       <c r="AQ5">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="AR5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AS5">
-        <v>177</v>
+        <v>0</v>
       </c>
       <c r="AT5">
-        <v>318</v>
+        <v>0</v>
       </c>
       <c r="AU5">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="AV5">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="AW5">
-        <v>173</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.3">
@@ -1107,145 +1110,145 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>-34</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>-31</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>218</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>-21</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>-21</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>-44</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>-64</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>-47</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>-56</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>-18</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>-18</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>127</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>107</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>121</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>147</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>129</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>288</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>195</v>
+        <v>0</v>
       </c>
       <c r="AL6">
-        <v>147</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>311</v>
+        <v>0</v>
       </c>
       <c r="AN6">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="AO6">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="AP6">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="AQ6">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AR6">
-        <v>-54</v>
+        <v>0</v>
       </c>
       <c r="AS6">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="AT6">
-        <v>166</v>
+        <v>0</v>
       </c>
       <c r="AU6">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AV6">
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="AW6">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.3">
@@ -1253,145 +1256,145 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>-31</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>198</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>363</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>437</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>122</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>266</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>115</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>224</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>259</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="R7">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="S7">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="T7">
-        <v>229</v>
+        <v>0</v>
       </c>
       <c r="U7">
-        <v>266</v>
+        <v>0</v>
       </c>
       <c r="V7">
-        <v>214</v>
+        <v>0</v>
       </c>
       <c r="W7">
-        <v>286</v>
+        <v>0</v>
       </c>
       <c r="X7">
-        <v>174</v>
+        <v>0</v>
       </c>
       <c r="Y7">
-        <v>249</v>
+        <v>0</v>
       </c>
       <c r="Z7">
-        <v>348</v>
+        <v>0</v>
       </c>
       <c r="AA7">
-        <v>118</v>
+        <v>0</v>
       </c>
       <c r="AB7">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="AC7">
-        <v>289</v>
+        <v>0</v>
       </c>
       <c r="AD7">
-        <v>293</v>
+        <v>0</v>
       </c>
       <c r="AE7">
-        <v>344</v>
+        <v>0</v>
       </c>
       <c r="AF7">
-        <v>311</v>
+        <v>0</v>
       </c>
       <c r="AG7">
-        <v>433</v>
+        <v>0</v>
       </c>
       <c r="AH7">
-        <v>355</v>
+        <v>0</v>
       </c>
       <c r="AI7">
-        <v>516</v>
+        <v>0</v>
       </c>
       <c r="AJ7">
-        <v>531</v>
+        <v>0</v>
       </c>
       <c r="AK7">
-        <v>508</v>
+        <v>0</v>
       </c>
       <c r="AL7">
-        <v>414</v>
+        <v>0</v>
       </c>
       <c r="AM7">
-        <v>523</v>
+        <v>0</v>
       </c>
       <c r="AN7">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AO7">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="AP7">
-        <v>177</v>
+        <v>0</v>
       </c>
       <c r="AQ7">
-        <v>124</v>
+        <v>0</v>
       </c>
       <c r="AR7">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="AS7">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="AT7">
-        <v>459</v>
+        <v>0</v>
       </c>
       <c r="AU7">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="AV7">
-        <v>298</v>
+        <v>0</v>
       </c>
       <c r="AW7">
-        <v>247</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.3">
@@ -1399,145 +1402,145 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>-35</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>-35</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>-56</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>-44</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>-49</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>-75</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>-43</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>-36</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>-68</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>-67</v>
+        <v>0</v>
       </c>
       <c r="R8">
-        <v>-69</v>
+        <v>0</v>
       </c>
       <c r="S8">
-        <v>-34</v>
+        <v>0</v>
       </c>
       <c r="T8">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="U8">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="V8">
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="W8">
-        <v>-30</v>
+        <v>0</v>
       </c>
       <c r="X8">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="Y8">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Z8">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="AA8">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="AB8">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="AC8">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="AD8">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="AE8">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="AF8">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AG8">
-        <v>124</v>
+        <v>0</v>
       </c>
       <c r="AH8">
-        <v>107</v>
+        <v>0</v>
       </c>
       <c r="AI8">
-        <v>259</v>
+        <v>0</v>
       </c>
       <c r="AJ8">
-        <v>322</v>
+        <v>0</v>
       </c>
       <c r="AK8">
-        <v>318</v>
+        <v>0</v>
       </c>
       <c r="AL8">
-        <v>171</v>
+        <v>0</v>
       </c>
       <c r="AM8">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="AN8">
-        <v>-37</v>
+        <v>0</v>
       </c>
       <c r="AO8">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="AP8">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="AQ8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR8">
-        <v>-66</v>
+        <v>0</v>
       </c>
       <c r="AS8">
-        <v>147</v>
+        <v>0</v>
       </c>
       <c r="AT8">
-        <v>358</v>
+        <v>0</v>
       </c>
       <c r="AU8">
-        <v>-30</v>
+        <v>0</v>
       </c>
       <c r="AV8">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AW8">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.3">
@@ -1545,145 +1548,145 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>-31</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>198</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>363</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>136</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>386</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>143</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>115</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>259</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="R9">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="S9">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="T9">
-        <v>229</v>
+        <v>0</v>
       </c>
       <c r="U9">
-        <v>266</v>
+        <v>0</v>
       </c>
       <c r="V9">
-        <v>178</v>
+        <v>0</v>
       </c>
       <c r="W9">
-        <v>286</v>
+        <v>0</v>
       </c>
       <c r="X9">
-        <v>152</v>
+        <v>0</v>
       </c>
       <c r="Y9">
-        <v>249</v>
+        <v>0</v>
       </c>
       <c r="Z9">
-        <v>333</v>
+        <v>0</v>
       </c>
       <c r="AA9">
-        <v>118</v>
+        <v>0</v>
       </c>
       <c r="AB9">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="AC9">
-        <v>289</v>
+        <v>0</v>
       </c>
       <c r="AD9">
-        <v>293</v>
+        <v>0</v>
       </c>
       <c r="AE9">
-        <v>344</v>
+        <v>0</v>
       </c>
       <c r="AF9">
-        <v>311</v>
+        <v>0</v>
       </c>
       <c r="AG9">
-        <v>418</v>
+        <v>0</v>
       </c>
       <c r="AH9">
-        <v>355</v>
+        <v>0</v>
       </c>
       <c r="AI9">
-        <v>487</v>
+        <v>0</v>
       </c>
       <c r="AJ9">
-        <v>531</v>
+        <v>0</v>
       </c>
       <c r="AK9">
-        <v>508</v>
+        <v>0</v>
       </c>
       <c r="AL9">
-        <v>356</v>
+        <v>0</v>
       </c>
       <c r="AM9">
-        <v>479</v>
+        <v>0</v>
       </c>
       <c r="AN9">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AO9">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="AP9">
-        <v>177</v>
+        <v>0</v>
       </c>
       <c r="AQ9">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="AR9">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="AS9">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="AT9">
-        <v>459</v>
+        <v>0</v>
       </c>
       <c r="AU9">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="AV9">
-        <v>298</v>
+        <v>0</v>
       </c>
       <c r="AW9">
-        <v>247</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.3">
@@ -1691,145 +1694,145 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>-35</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>-31</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>121</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>231</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>306</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>135</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>164</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>117</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>-17</v>
+        <v>0</v>
       </c>
       <c r="R10">
-        <v>-11</v>
+        <v>0</v>
       </c>
       <c r="S10">
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="T10">
-        <v>151</v>
+        <v>0</v>
       </c>
       <c r="U10">
-        <v>177</v>
+        <v>0</v>
       </c>
       <c r="V10">
-        <v>107</v>
+        <v>0</v>
       </c>
       <c r="W10">
-        <v>174</v>
+        <v>0</v>
       </c>
       <c r="X10">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="Y10">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="Z10">
-        <v>223</v>
+        <v>0</v>
       </c>
       <c r="AA10">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="AB10">
-        <v>162</v>
+        <v>0</v>
       </c>
       <c r="AC10">
-        <v>192</v>
+        <v>0</v>
       </c>
       <c r="AD10">
-        <v>196</v>
+        <v>0</v>
       </c>
       <c r="AE10">
-        <v>221</v>
+        <v>0</v>
       </c>
       <c r="AF10">
-        <v>195</v>
+        <v>0</v>
       </c>
       <c r="AG10">
-        <v>267</v>
+        <v>0</v>
       </c>
       <c r="AH10">
-        <v>231</v>
+        <v>0</v>
       </c>
       <c r="AI10">
-        <v>294</v>
+        <v>0</v>
       </c>
       <c r="AJ10">
-        <v>337</v>
+        <v>0</v>
       </c>
       <c r="AK10">
-        <v>326</v>
+        <v>0</v>
       </c>
       <c r="AL10">
-        <v>242</v>
+        <v>0</v>
       </c>
       <c r="AM10">
-        <v>386</v>
+        <v>0</v>
       </c>
       <c r="AN10">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AO10">
-        <v>131</v>
+        <v>0</v>
       </c>
       <c r="AP10">
-        <v>114</v>
+        <v>0</v>
       </c>
       <c r="AQ10">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="AR10">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="AS10">
-        <v>164</v>
+        <v>0</v>
       </c>
       <c r="AT10">
-        <v>297</v>
+        <v>0</v>
       </c>
       <c r="AU10">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="AV10">
-        <v>195</v>
+        <v>0</v>
       </c>
       <c r="AW10">
-        <v>154</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:49" x14ac:dyDescent="0.3">
@@ -1837,145 +1840,145 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>199</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>365</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>138</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>453</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>267</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>225</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>261</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>191</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>107</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="R11">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="S11">
-        <v>172</v>
+        <v>0</v>
       </c>
       <c r="T11">
-        <v>230</v>
+        <v>0</v>
       </c>
       <c r="U11">
-        <v>267</v>
+        <v>0</v>
       </c>
       <c r="V11">
-        <v>179</v>
+        <v>0</v>
       </c>
       <c r="W11">
-        <v>244</v>
+        <v>0</v>
       </c>
       <c r="X11">
-        <v>176</v>
+        <v>0</v>
       </c>
       <c r="Y11">
-        <v>251</v>
+        <v>0</v>
       </c>
       <c r="Z11">
-        <v>334</v>
+        <v>0</v>
       </c>
       <c r="AA11">
-        <v>119</v>
+        <v>0</v>
       </c>
       <c r="AB11">
-        <v>241</v>
+        <v>0</v>
       </c>
       <c r="AC11">
-        <v>291</v>
+        <v>0</v>
       </c>
       <c r="AD11">
-        <v>294</v>
+        <v>0</v>
       </c>
       <c r="AE11">
-        <v>345</v>
+        <v>0</v>
       </c>
       <c r="AF11">
-        <v>312</v>
+        <v>0</v>
       </c>
       <c r="AG11">
-        <v>420</v>
+        <v>0</v>
       </c>
       <c r="AH11">
-        <v>356</v>
+        <v>0</v>
       </c>
       <c r="AI11">
-        <v>489</v>
+        <v>0</v>
       </c>
       <c r="AJ11">
-        <v>533</v>
+        <v>0</v>
       </c>
       <c r="AK11">
-        <v>509</v>
+        <v>0</v>
       </c>
       <c r="AL11">
-        <v>358</v>
+        <v>0</v>
       </c>
       <c r="AM11">
-        <v>481</v>
+        <v>0</v>
       </c>
       <c r="AN11">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="AO11">
-        <v>211</v>
+        <v>0</v>
       </c>
       <c r="AP11">
-        <v>178</v>
+        <v>0</v>
       </c>
       <c r="AQ11">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="AR11">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="AS11">
-        <v>321</v>
+        <v>0</v>
       </c>
       <c r="AT11">
-        <v>460</v>
+        <v>0</v>
       </c>
       <c r="AU11">
-        <v>106</v>
+        <v>0</v>
       </c>
       <c r="AV11">
-        <v>299</v>
+        <v>0</v>
       </c>
       <c r="AW11">
-        <v>249</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:49" x14ac:dyDescent="0.3">
@@ -1983,145 +1986,145 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>212</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>386</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>433</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>135</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>285</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>127</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>277</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>203</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>127</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="R12">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="S12">
-        <v>187</v>
+        <v>0</v>
       </c>
       <c r="T12">
-        <v>242</v>
+        <v>0</v>
       </c>
       <c r="U12">
-        <v>281</v>
+        <v>0</v>
       </c>
       <c r="V12">
-        <v>191</v>
+        <v>0</v>
       </c>
       <c r="W12">
-        <v>263</v>
+        <v>0</v>
       </c>
       <c r="X12">
-        <v>192</v>
+        <v>0</v>
       </c>
       <c r="Y12">
-        <v>267</v>
+        <v>0</v>
       </c>
       <c r="Z12">
-        <v>352</v>
+        <v>0</v>
       </c>
       <c r="AA12">
-        <v>127</v>
+        <v>0</v>
       </c>
       <c r="AB12">
-        <v>254</v>
+        <v>0</v>
       </c>
       <c r="AC12">
-        <v>306</v>
+        <v>0</v>
       </c>
       <c r="AD12">
-        <v>310</v>
+        <v>0</v>
       </c>
       <c r="AE12">
-        <v>365</v>
+        <v>0</v>
       </c>
       <c r="AF12">
-        <v>332</v>
+        <v>0</v>
       </c>
       <c r="AG12">
-        <v>444</v>
+        <v>0</v>
       </c>
       <c r="AH12">
-        <v>376</v>
+        <v>0</v>
       </c>
       <c r="AI12">
-        <v>520</v>
+        <v>0</v>
       </c>
       <c r="AJ12">
-        <v>563</v>
+        <v>0</v>
       </c>
       <c r="AK12">
-        <v>537</v>
+        <v>0</v>
       </c>
       <c r="AL12">
-        <v>376</v>
+        <v>0</v>
       </c>
       <c r="AM12">
-        <v>484</v>
+        <v>0</v>
       </c>
       <c r="AN12">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="AO12">
-        <v>225</v>
+        <v>0</v>
       </c>
       <c r="AP12">
-        <v>188</v>
+        <v>0</v>
       </c>
       <c r="AQ12">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="AR12">
-        <v>112</v>
+        <v>0</v>
       </c>
       <c r="AS12">
-        <v>262</v>
+        <v>0</v>
       </c>
       <c r="AT12">
-        <v>486</v>
+        <v>0</v>
       </c>
       <c r="AU12">
-        <v>116</v>
+        <v>0</v>
       </c>
       <c r="AV12">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="AW12">
-        <v>264</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:49" x14ac:dyDescent="0.3">
@@ -2129,145 +2132,145 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>-34</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>252</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>286</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>178</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>188</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>136</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="R13">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="S13">
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="T13">
-        <v>167</v>
+        <v>0</v>
       </c>
       <c r="U13">
-        <v>195</v>
+        <v>0</v>
       </c>
       <c r="V13">
-        <v>124</v>
+        <v>0</v>
       </c>
       <c r="W13">
-        <v>198</v>
+        <v>0</v>
       </c>
       <c r="X13">
-        <v>111</v>
+        <v>0</v>
       </c>
       <c r="Y13">
-        <v>172</v>
+        <v>0</v>
       </c>
       <c r="Z13">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="AA13">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="AB13">
-        <v>178</v>
+        <v>0</v>
       </c>
       <c r="AC13">
-        <v>211</v>
+        <v>0</v>
       </c>
       <c r="AD13">
-        <v>216</v>
+        <v>0</v>
       </c>
       <c r="AE13">
-        <v>241</v>
+        <v>0</v>
       </c>
       <c r="AF13">
-        <v>224</v>
+        <v>0</v>
       </c>
       <c r="AG13">
-        <v>290</v>
+        <v>0</v>
       </c>
       <c r="AH13">
-        <v>252</v>
+        <v>0</v>
       </c>
       <c r="AI13">
-        <v>323</v>
+        <v>0</v>
       </c>
       <c r="AJ13">
-        <v>359</v>
+        <v>0</v>
       </c>
       <c r="AK13">
-        <v>349</v>
+        <v>0</v>
       </c>
       <c r="AL13">
-        <v>261</v>
+        <v>0</v>
       </c>
       <c r="AM13">
-        <v>411</v>
+        <v>0</v>
       </c>
       <c r="AN13">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="AO13">
-        <v>151</v>
+        <v>0</v>
       </c>
       <c r="AP13">
-        <v>126</v>
+        <v>0</v>
       </c>
       <c r="AQ13">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="AR13">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="AS13">
-        <v>181</v>
+        <v>0</v>
       </c>
       <c r="AT13">
-        <v>323</v>
+        <v>0</v>
       </c>
       <c r="AU13">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="AV13">
-        <v>213</v>
+        <v>0</v>
       </c>
       <c r="AW13">
-        <v>177</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.3">
@@ -2275,145 +2278,145 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>252</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>330</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>178</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>156</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="R14">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="S14">
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="T14">
-        <v>167</v>
+        <v>0</v>
       </c>
       <c r="U14">
-        <v>195</v>
+        <v>0</v>
       </c>
       <c r="V14">
-        <v>124</v>
+        <v>0</v>
       </c>
       <c r="W14">
-        <v>169</v>
+        <v>0</v>
       </c>
       <c r="X14">
-        <v>111</v>
+        <v>0</v>
       </c>
       <c r="Y14">
-        <v>172</v>
+        <v>0</v>
       </c>
       <c r="Z14">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="AA14">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="AB14">
-        <v>178</v>
+        <v>0</v>
       </c>
       <c r="AC14">
-        <v>211</v>
+        <v>0</v>
       </c>
       <c r="AD14">
-        <v>216</v>
+        <v>0</v>
       </c>
       <c r="AE14">
-        <v>241</v>
+        <v>0</v>
       </c>
       <c r="AF14">
-        <v>224</v>
+        <v>0</v>
       </c>
       <c r="AG14">
-        <v>290</v>
+        <v>0</v>
       </c>
       <c r="AH14">
-        <v>252</v>
+        <v>0</v>
       </c>
       <c r="AI14">
-        <v>323</v>
+        <v>0</v>
       </c>
       <c r="AJ14">
-        <v>359</v>
+        <v>0</v>
       </c>
       <c r="AK14">
-        <v>349</v>
+        <v>0</v>
       </c>
       <c r="AL14">
-        <v>305</v>
+        <v>0</v>
       </c>
       <c r="AM14">
-        <v>411</v>
+        <v>0</v>
       </c>
       <c r="AN14">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="AO14">
-        <v>151</v>
+        <v>0</v>
       </c>
       <c r="AP14">
-        <v>126</v>
+        <v>0</v>
       </c>
       <c r="AQ14">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="AR14">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="AS14">
-        <v>181</v>
+        <v>0</v>
       </c>
       <c r="AT14">
-        <v>323</v>
+        <v>0</v>
       </c>
       <c r="AU14">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="AV14">
-        <v>213</v>
+        <v>0</v>
       </c>
       <c r="AW14">
-        <v>177</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.3">
@@ -2421,145 +2424,145 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>158</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>273</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>107</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>353</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>199</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>176</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>172</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="R15">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="S15">
-        <v>136</v>
+        <v>0</v>
       </c>
       <c r="T15">
-        <v>182</v>
+        <v>0</v>
       </c>
       <c r="U15">
-        <v>212</v>
+        <v>0</v>
       </c>
       <c r="V15">
-        <v>141</v>
+        <v>0</v>
       </c>
       <c r="W15">
-        <v>194</v>
+        <v>0</v>
       </c>
       <c r="X15">
-        <v>139</v>
+        <v>0</v>
       </c>
       <c r="Y15">
-        <v>193</v>
+        <v>0</v>
       </c>
       <c r="Z15">
-        <v>266</v>
+        <v>0</v>
       </c>
       <c r="AA15">
-        <v>93</v>
+        <v>0</v>
       </c>
       <c r="AB15">
-        <v>194</v>
+        <v>0</v>
       </c>
       <c r="AC15">
-        <v>229</v>
+        <v>0</v>
       </c>
       <c r="AD15">
-        <v>235</v>
+        <v>0</v>
       </c>
       <c r="AE15">
-        <v>261</v>
+        <v>0</v>
       </c>
       <c r="AF15">
-        <v>252</v>
+        <v>0</v>
       </c>
       <c r="AG15">
-        <v>313</v>
+        <v>0</v>
       </c>
       <c r="AH15">
-        <v>274</v>
+        <v>0</v>
       </c>
       <c r="AI15">
-        <v>352</v>
+        <v>0</v>
       </c>
       <c r="AJ15">
-        <v>382</v>
+        <v>0</v>
       </c>
       <c r="AK15">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="AL15">
-        <v>280</v>
+        <v>0</v>
       </c>
       <c r="AM15">
-        <v>436</v>
+        <v>0</v>
       </c>
       <c r="AN15">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="AO15">
-        <v>172</v>
+        <v>0</v>
       </c>
       <c r="AP15">
-        <v>138</v>
+        <v>0</v>
       </c>
       <c r="AQ15">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="AR15">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="AS15">
-        <v>197</v>
+        <v>0</v>
       </c>
       <c r="AT15">
-        <v>349</v>
+        <v>0</v>
       </c>
       <c r="AU15">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="AV15">
-        <v>232</v>
+        <v>0</v>
       </c>
       <c r="AW15">
-        <v>201</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:49" x14ac:dyDescent="0.3">
@@ -2567,145 +2570,145 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>212</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>386</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>433</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>135</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>285</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>127</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>277</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>203</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="R16">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="S16">
-        <v>187</v>
+        <v>0</v>
       </c>
       <c r="T16">
-        <v>242</v>
+        <v>0</v>
       </c>
       <c r="U16">
-        <v>281</v>
+        <v>0</v>
       </c>
       <c r="V16">
-        <v>191</v>
+        <v>0</v>
       </c>
       <c r="W16">
-        <v>263</v>
+        <v>0</v>
       </c>
       <c r="X16">
-        <v>192</v>
+        <v>0</v>
       </c>
       <c r="Y16">
-        <v>267</v>
+        <v>0</v>
       </c>
       <c r="Z16">
-        <v>352</v>
+        <v>0</v>
       </c>
       <c r="AA16">
-        <v>127</v>
+        <v>0</v>
       </c>
       <c r="AB16">
-        <v>254</v>
+        <v>0</v>
       </c>
       <c r="AC16">
-        <v>306</v>
+        <v>0</v>
       </c>
       <c r="AD16">
-        <v>310</v>
+        <v>0</v>
       </c>
       <c r="AE16">
-        <v>365</v>
+        <v>0</v>
       </c>
       <c r="AF16">
-        <v>332</v>
+        <v>0</v>
       </c>
       <c r="AG16">
-        <v>444</v>
+        <v>0</v>
       </c>
       <c r="AH16">
-        <v>376</v>
+        <v>0</v>
       </c>
       <c r="AI16">
-        <v>520</v>
+        <v>0</v>
       </c>
       <c r="AJ16">
-        <v>563</v>
+        <v>0</v>
       </c>
       <c r="AK16">
-        <v>494</v>
+        <v>0</v>
       </c>
       <c r="AL16">
-        <v>376</v>
+        <v>0</v>
       </c>
       <c r="AM16">
-        <v>484</v>
+        <v>0</v>
       </c>
       <c r="AN16">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="AO16">
-        <v>225</v>
+        <v>0</v>
       </c>
       <c r="AP16">
-        <v>188</v>
+        <v>0</v>
       </c>
       <c r="AQ16">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="AR16">
-        <v>112</v>
+        <v>0</v>
       </c>
       <c r="AS16">
-        <v>262</v>
+        <v>0</v>
       </c>
       <c r="AT16">
-        <v>486</v>
+        <v>0</v>
       </c>
       <c r="AU16">
-        <v>116</v>
+        <v>0</v>
       </c>
       <c r="AV16">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="AW16">
-        <v>264</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:49" x14ac:dyDescent="0.3">
@@ -2713,145 +2716,145 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>226</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>402</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>167</v>
+        <v>0</v>
       </c>
       <c r="H17">
-        <v>451</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>151</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>302</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>142</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>256</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>296</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>218</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>158</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="R17">
-        <v>129</v>
+        <v>0</v>
       </c>
       <c r="S17">
-        <v>208</v>
+        <v>0</v>
       </c>
       <c r="T17">
-        <v>276</v>
+        <v>0</v>
       </c>
       <c r="U17">
-        <v>316</v>
+        <v>0</v>
       </c>
       <c r="V17">
-        <v>204</v>
+        <v>0</v>
       </c>
       <c r="W17">
-        <v>326</v>
+        <v>0</v>
       </c>
       <c r="X17">
-        <v>213</v>
+        <v>0</v>
       </c>
       <c r="Y17">
-        <v>284</v>
+        <v>0</v>
       </c>
       <c r="Z17">
-        <v>369</v>
+        <v>0</v>
       </c>
       <c r="AA17">
-        <v>137</v>
+        <v>0</v>
       </c>
       <c r="AB17">
-        <v>267</v>
+        <v>0</v>
       </c>
       <c r="AC17">
-        <v>321</v>
+        <v>0</v>
       </c>
       <c r="AD17">
-        <v>325</v>
+        <v>0</v>
       </c>
       <c r="AE17">
-        <v>381</v>
+        <v>0</v>
       </c>
       <c r="AF17">
-        <v>354</v>
+        <v>0</v>
       </c>
       <c r="AG17">
-        <v>462</v>
+        <v>0</v>
       </c>
       <c r="AH17">
-        <v>393</v>
+        <v>0</v>
       </c>
       <c r="AI17">
-        <v>542</v>
+        <v>0</v>
       </c>
       <c r="AJ17">
-        <v>581</v>
+        <v>0</v>
       </c>
       <c r="AK17">
-        <v>555</v>
+        <v>0</v>
       </c>
       <c r="AL17">
-        <v>391</v>
+        <v>0</v>
       </c>
       <c r="AM17">
-        <v>504</v>
+        <v>0</v>
       </c>
       <c r="AN17">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="AO17">
-        <v>241</v>
+        <v>0</v>
       </c>
       <c r="AP17">
-        <v>197</v>
+        <v>0</v>
       </c>
       <c r="AQ17">
-        <v>111</v>
+        <v>0</v>
       </c>
       <c r="AR17">
-        <v>141</v>
+        <v>0</v>
       </c>
       <c r="AS17">
-        <v>274</v>
+        <v>0</v>
       </c>
       <c r="AT17">
-        <v>506</v>
+        <v>0</v>
       </c>
       <c r="AU17">
-        <v>133</v>
+        <v>0</v>
       </c>
       <c r="AV17">
-        <v>330</v>
+        <v>0</v>
       </c>
       <c r="AW17">
-        <v>282</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:49" x14ac:dyDescent="0.3">
@@ -2859,145 +2862,145 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>212</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>385</v>
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="H18">
-        <v>411</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>113</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>263</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>218</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>181</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="R18">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="S18">
-        <v>165</v>
+        <v>0</v>
       </c>
       <c r="T18">
-        <v>221</v>
+        <v>0</v>
       </c>
       <c r="U18">
-        <v>259</v>
+        <v>0</v>
       </c>
       <c r="V18">
-        <v>169</v>
+        <v>0</v>
       </c>
       <c r="W18">
-        <v>284</v>
+        <v>0</v>
       </c>
       <c r="X18">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="Y18">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="Z18">
-        <v>330</v>
+        <v>0</v>
       </c>
       <c r="AA18">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="AB18">
-        <v>232</v>
+        <v>0</v>
       </c>
       <c r="AC18">
-        <v>285</v>
+        <v>0</v>
       </c>
       <c r="AD18">
-        <v>288</v>
+        <v>0</v>
       </c>
       <c r="AE18">
-        <v>343</v>
+        <v>0</v>
       </c>
       <c r="AF18">
-        <v>310</v>
+        <v>0</v>
       </c>
       <c r="AG18">
-        <v>422</v>
+        <v>0</v>
       </c>
       <c r="AH18">
-        <v>354</v>
+        <v>0</v>
       </c>
       <c r="AI18">
-        <v>498</v>
+        <v>0</v>
       </c>
       <c r="AJ18">
-        <v>541</v>
+        <v>0</v>
       </c>
       <c r="AK18">
-        <v>515</v>
+        <v>0</v>
       </c>
       <c r="AL18">
-        <v>354</v>
+        <v>0</v>
       </c>
       <c r="AM18">
-        <v>535</v>
+        <v>0</v>
       </c>
       <c r="AN18">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="AO18">
-        <v>152</v>
+        <v>0</v>
       </c>
       <c r="AP18">
-        <v>166</v>
+        <v>0</v>
       </c>
       <c r="AQ18">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="AR18">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="AS18">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="AT18">
-        <v>464</v>
+        <v>0</v>
       </c>
       <c r="AU18">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="AV18">
-        <v>293</v>
+        <v>0</v>
       </c>
       <c r="AW18">
-        <v>242</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:49" x14ac:dyDescent="0.3">
@@ -3005,145 +3008,145 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>198</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>363</v>
+        <v>0</v>
       </c>
       <c r="G19">
-        <v>136</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>408</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>122</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>266</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>115</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>224</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>259</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="R19">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="S19">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="T19">
-        <v>229</v>
+        <v>0</v>
       </c>
       <c r="U19">
-        <v>266</v>
+        <v>0</v>
       </c>
       <c r="V19">
-        <v>178</v>
+        <v>0</v>
       </c>
       <c r="W19">
-        <v>286</v>
+        <v>0</v>
       </c>
       <c r="X19">
-        <v>174</v>
+        <v>0</v>
       </c>
       <c r="Y19">
-        <v>249</v>
+        <v>0</v>
       </c>
       <c r="Z19">
-        <v>304</v>
+        <v>0</v>
       </c>
       <c r="AA19">
-        <v>118</v>
+        <v>0</v>
       </c>
       <c r="AB19">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="AC19">
-        <v>289</v>
+        <v>0</v>
       </c>
       <c r="AD19">
-        <v>293</v>
+        <v>0</v>
       </c>
       <c r="AE19">
-        <v>344</v>
+        <v>0</v>
       </c>
       <c r="AF19">
-        <v>311</v>
+        <v>0</v>
       </c>
       <c r="AG19">
-        <v>418</v>
+        <v>0</v>
       </c>
       <c r="AH19">
-        <v>355</v>
+        <v>0</v>
       </c>
       <c r="AI19">
-        <v>487</v>
+        <v>0</v>
       </c>
       <c r="AJ19">
-        <v>531</v>
+        <v>0</v>
       </c>
       <c r="AK19">
-        <v>508</v>
+        <v>0</v>
       </c>
       <c r="AL19">
-        <v>356</v>
+        <v>0</v>
       </c>
       <c r="AM19">
-        <v>523</v>
+        <v>0</v>
       </c>
       <c r="AN19">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AO19">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="AP19">
-        <v>177</v>
+        <v>0</v>
       </c>
       <c r="AQ19">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="AR19">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="AS19">
-        <v>247</v>
+        <v>0</v>
       </c>
       <c r="AT19">
-        <v>459</v>
+        <v>0</v>
       </c>
       <c r="AU19">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="AV19">
-        <v>298</v>
+        <v>0</v>
       </c>
       <c r="AW19">
-        <v>247</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:49" x14ac:dyDescent="0.3">
@@ -3151,145 +3154,145 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>93</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="G20">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="H20">
-        <v>279</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>114</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>-38</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>129</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>-40</v>
+        <v>0</v>
       </c>
       <c r="R20">
-        <v>-43</v>
+        <v>0</v>
       </c>
       <c r="S20">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="T20">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="U20">
-        <v>144</v>
+        <v>0</v>
       </c>
       <c r="V20">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="W20">
-        <v>132</v>
+        <v>0</v>
       </c>
       <c r="X20">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="Y20">
-        <v>113</v>
+        <v>0</v>
       </c>
       <c r="Z20">
-        <v>182</v>
+        <v>0</v>
       </c>
       <c r="AA20">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="AB20">
-        <v>132</v>
+        <v>0</v>
       </c>
       <c r="AC20">
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="AD20">
-        <v>203</v>
+        <v>0</v>
       </c>
       <c r="AE20">
-        <v>217</v>
+        <v>0</v>
       </c>
       <c r="AF20">
-        <v>197</v>
+        <v>0</v>
       </c>
       <c r="AG20">
-        <v>251</v>
+        <v>0</v>
       </c>
       <c r="AH20">
-        <v>227</v>
+        <v>0</v>
       </c>
       <c r="AI20">
-        <v>306</v>
+        <v>0</v>
       </c>
       <c r="AJ20">
-        <v>331</v>
+        <v>0</v>
       </c>
       <c r="AK20">
-        <v>327</v>
+        <v>0</v>
       </c>
       <c r="AL20">
-        <v>198</v>
+        <v>0</v>
       </c>
       <c r="AM20">
-        <v>347</v>
+        <v>0</v>
       </c>
       <c r="AN20">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AO20">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="AP20">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="AQ20">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="AR20">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="AS20">
-        <v>133</v>
+        <v>0</v>
       </c>
       <c r="AT20">
-        <v>234</v>
+        <v>0</v>
       </c>
       <c r="AU20">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="AV20">
-        <v>156</v>
+        <v>0</v>
       </c>
       <c r="AW20">
-        <v>120</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:49" x14ac:dyDescent="0.3">
@@ -3297,145 +3300,145 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>-34</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>163</v>
+        <v>0</v>
       </c>
       <c r="G21">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>188</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>-17</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>-36</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="R21">
-        <v>-30</v>
+        <v>0</v>
       </c>
       <c r="S21">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T21">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="U21">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="V21">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="W21">
-        <v>112</v>
+        <v>0</v>
       </c>
       <c r="X21">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="Y21">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="Z21">
-        <v>165</v>
+        <v>0</v>
       </c>
       <c r="AA21">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="AB21">
-        <v>119</v>
+        <v>0</v>
       </c>
       <c r="AC21">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="AD21">
-        <v>145</v>
+        <v>0</v>
       </c>
       <c r="AE21">
-        <v>158</v>
+        <v>0</v>
       </c>
       <c r="AF21">
-        <v>131</v>
+        <v>0</v>
       </c>
       <c r="AG21">
-        <v>189</v>
+        <v>0</v>
       </c>
       <c r="AH21">
-        <v>167</v>
+        <v>0</v>
       </c>
       <c r="AI21">
-        <v>195</v>
+        <v>0</v>
       </c>
       <c r="AJ21">
-        <v>241</v>
+        <v>0</v>
       </c>
       <c r="AK21">
-        <v>236</v>
+        <v>0</v>
       </c>
       <c r="AL21">
-        <v>182</v>
+        <v>0</v>
       </c>
       <c r="AM21">
-        <v>327</v>
+        <v>0</v>
       </c>
       <c r="AN21">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="AO21">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="AP21">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="AQ21">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AR21">
-        <v>-45</v>
+        <v>0</v>
       </c>
       <c r="AS21">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="AT21">
-        <v>213</v>
+        <v>0</v>
       </c>
       <c r="AU21">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AV21">
-        <v>141</v>
+        <v>0</v>
       </c>
       <c r="AW21">
-        <v>102</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:49" x14ac:dyDescent="0.3">
@@ -3443,145 +3446,145 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>-34</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>143</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>256</v>
+        <v>0</v>
       </c>
       <c r="G22">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="H22">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>182</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>164</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>111</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R22">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="S22">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="T22">
-        <v>141</v>
+        <v>0</v>
       </c>
       <c r="U22">
-        <v>169</v>
+        <v>0</v>
       </c>
       <c r="V22">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="W22">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="X22">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="Y22">
-        <v>161</v>
+        <v>0</v>
       </c>
       <c r="Z22">
-        <v>249</v>
+        <v>0</v>
       </c>
       <c r="AA22">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="AB22">
-        <v>181</v>
+        <v>0</v>
       </c>
       <c r="AC22">
-        <v>214</v>
+        <v>0</v>
       </c>
       <c r="AD22">
-        <v>219</v>
+        <v>0</v>
       </c>
       <c r="AE22">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="AF22">
-        <v>229</v>
+        <v>0</v>
       </c>
       <c r="AG22">
-        <v>324</v>
+        <v>0</v>
       </c>
       <c r="AH22">
-        <v>271</v>
+        <v>0</v>
       </c>
       <c r="AI22">
-        <v>343</v>
+        <v>0</v>
       </c>
       <c r="AJ22">
-        <v>378</v>
+        <v>0</v>
       </c>
       <c r="AK22">
-        <v>368</v>
+        <v>0</v>
       </c>
       <c r="AL22">
-        <v>265</v>
+        <v>0</v>
       </c>
       <c r="AM22">
-        <v>416</v>
+        <v>0</v>
       </c>
       <c r="AN22">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AO22">
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="AP22">
-        <v>129</v>
+        <v>0</v>
       </c>
       <c r="AQ22">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="AR22">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AS22">
-        <v>184</v>
+        <v>0</v>
       </c>
       <c r="AT22">
-        <v>328</v>
+        <v>0</v>
       </c>
       <c r="AU22">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="AV22">
-        <v>217</v>
+        <v>0</v>
       </c>
       <c r="AW22">
-        <v>182</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:49" x14ac:dyDescent="0.3">
@@ -3589,145 +3592,145 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>-34</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>163</v>
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>232</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>-43</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>-35</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="R23">
-        <v>-41</v>
+        <v>0</v>
       </c>
       <c r="S23">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T23">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="U23">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="V23">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="W23">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="X23">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="Y23">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="Z23">
-        <v>165</v>
+        <v>0</v>
       </c>
       <c r="AA23">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="AB23">
-        <v>119</v>
+        <v>0</v>
       </c>
       <c r="AC23">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="AD23">
-        <v>174</v>
+        <v>0</v>
       </c>
       <c r="AE23">
-        <v>201</v>
+        <v>0</v>
       </c>
       <c r="AF23">
-        <v>131</v>
+        <v>0</v>
       </c>
       <c r="AG23">
-        <v>262</v>
+        <v>0</v>
       </c>
       <c r="AH23">
-        <v>196</v>
+        <v>0</v>
       </c>
       <c r="AI23">
-        <v>297</v>
+        <v>0</v>
       </c>
       <c r="AJ23">
-        <v>313</v>
+        <v>0</v>
       </c>
       <c r="AK23">
-        <v>323</v>
+        <v>0</v>
       </c>
       <c r="AL23">
-        <v>182</v>
+        <v>0</v>
       </c>
       <c r="AM23">
-        <v>356</v>
+        <v>0</v>
       </c>
       <c r="AN23">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="AO23">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="AP23">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="AQ23">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AR23">
-        <v>-45</v>
+        <v>0</v>
       </c>
       <c r="AS23">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="AT23">
-        <v>213</v>
+        <v>0</v>
       </c>
       <c r="AU23">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AV23">
-        <v>141</v>
+        <v>0</v>
       </c>
       <c r="AW23">
-        <v>102</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:49" x14ac:dyDescent="0.3">
@@ -3735,145 +3738,145 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>186</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>351</v>
+        <v>0</v>
       </c>
       <c r="G24">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>394</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>253</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>212</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>244</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>178</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="R24">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="S24">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="T24">
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="U24">
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="V24">
-        <v>168</v>
+        <v>0</v>
       </c>
       <c r="W24">
-        <v>271</v>
+        <v>0</v>
       </c>
       <c r="X24">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="Y24">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="Z24">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="AA24">
-        <v>111</v>
+        <v>0</v>
       </c>
       <c r="AB24">
-        <v>230</v>
+        <v>0</v>
       </c>
       <c r="AC24">
-        <v>278</v>
+        <v>0</v>
       </c>
       <c r="AD24">
-        <v>282</v>
+        <v>0</v>
       </c>
       <c r="AE24">
-        <v>332</v>
+        <v>0</v>
       </c>
       <c r="AF24">
-        <v>294</v>
+        <v>0</v>
       </c>
       <c r="AG24">
-        <v>404</v>
+        <v>0</v>
       </c>
       <c r="AH24">
-        <v>342</v>
+        <v>0</v>
       </c>
       <c r="AI24">
-        <v>426</v>
+        <v>0</v>
       </c>
       <c r="AJ24">
-        <v>474</v>
+        <v>0</v>
       </c>
       <c r="AK24">
-        <v>451</v>
+        <v>0</v>
       </c>
       <c r="AL24">
-        <v>345</v>
+        <v>0</v>
       </c>
       <c r="AM24">
-        <v>435</v>
+        <v>0</v>
       </c>
       <c r="AN24">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="AO24">
-        <v>198</v>
+        <v>0</v>
       </c>
       <c r="AP24">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="AQ24">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="AR24">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AS24">
-        <v>237</v>
+        <v>0</v>
       </c>
       <c r="AT24">
-        <v>443</v>
+        <v>0</v>
       </c>
       <c r="AU24">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="AV24">
-        <v>286</v>
+        <v>0</v>
       </c>
       <c r="AW24">
-        <v>233</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:49" x14ac:dyDescent="0.3">
@@ -3881,145 +3884,145 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>-34</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>134</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>246</v>
+        <v>0</v>
       </c>
       <c r="G25">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>279</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>171</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>181</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R25">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="S25">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="T25">
-        <v>162</v>
+        <v>0</v>
       </c>
       <c r="U25">
-        <v>189</v>
+        <v>0</v>
       </c>
       <c r="V25">
-        <v>119</v>
+        <v>0</v>
       </c>
       <c r="W25">
-        <v>191</v>
+        <v>0</v>
       </c>
       <c r="X25">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="Y25">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="Z25">
-        <v>238</v>
+        <v>0</v>
       </c>
       <c r="AA25">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="AB25">
-        <v>173</v>
+        <v>0</v>
       </c>
       <c r="AC25">
-        <v>205</v>
+        <v>0</v>
       </c>
       <c r="AD25">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="AE25">
-        <v>235</v>
+        <v>0</v>
       </c>
       <c r="AF25">
-        <v>215</v>
+        <v>0</v>
       </c>
       <c r="AG25">
-        <v>283</v>
+        <v>0</v>
       </c>
       <c r="AH25">
-        <v>246</v>
+        <v>0</v>
       </c>
       <c r="AI25">
-        <v>314</v>
+        <v>0</v>
       </c>
       <c r="AJ25">
-        <v>353</v>
+        <v>0</v>
       </c>
       <c r="AK25">
-        <v>342</v>
+        <v>0</v>
       </c>
       <c r="AL25">
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="AM25">
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="AN25">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AO25">
-        <v>145</v>
+        <v>0</v>
       </c>
       <c r="AP25">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="AQ25">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="AR25">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AS25">
-        <v>176</v>
+        <v>0</v>
       </c>
       <c r="AT25">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="AU25">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="AV25">
-        <v>208</v>
+        <v>0</v>
       </c>
       <c r="AW25">
-        <v>170</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:49" x14ac:dyDescent="0.3">
@@ -4027,145 +4030,145 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>-50</v>
+        <v>0</v>
       </c>
       <c r="D26">
-        <v>-34</v>
+        <v>0</v>
       </c>
       <c r="E26">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>117</v>
+        <v>0</v>
       </c>
       <c r="G26">
-        <v>-42</v>
+        <v>0</v>
       </c>
       <c r="H26">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="I26">
-        <v>-45</v>
+        <v>0</v>
       </c>
       <c r="J26">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="K26">
-        <v>-43</v>
+        <v>0</v>
       </c>
       <c r="L26">
-        <v>-50</v>
+        <v>0</v>
       </c>
       <c r="M26">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="N26">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="O26">
-        <v>-22</v>
+        <v>0</v>
       </c>
       <c r="P26">
-        <v>-49</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>-46</v>
+        <v>0</v>
       </c>
       <c r="R26">
-        <v>-49</v>
+        <v>0</v>
       </c>
       <c r="S26">
-        <v>-13</v>
+        <v>0</v>
       </c>
       <c r="T26">
-        <v>-24</v>
+        <v>0</v>
       </c>
       <c r="U26">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="V26">
-        <v>-14</v>
+        <v>0</v>
       </c>
       <c r="W26">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="X26">
-        <v>-40</v>
+        <v>0</v>
       </c>
       <c r="Y26">
-        <v>-32</v>
+        <v>0</v>
       </c>
       <c r="Z26">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AA26">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="AB26">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AC26">
-        <v>118</v>
+        <v>0</v>
       </c>
       <c r="AD26">
-        <v>107</v>
+        <v>0</v>
       </c>
       <c r="AE26">
-        <v>119</v>
+        <v>0</v>
       </c>
       <c r="AF26">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="AG26">
-        <v>161</v>
+        <v>0</v>
       </c>
       <c r="AH26">
-        <v>112</v>
+        <v>0</v>
       </c>
       <c r="AI26">
-        <v>277</v>
+        <v>0</v>
       </c>
       <c r="AJ26">
-        <v>286</v>
+        <v>0</v>
       </c>
       <c r="AK26">
-        <v>281</v>
+        <v>0</v>
       </c>
       <c r="AL26">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="AM26">
-        <v>282</v>
+        <v>0</v>
       </c>
       <c r="AN26">
-        <v>-18</v>
+        <v>0</v>
       </c>
       <c r="AO26">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="AP26">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="AQ26">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AR26">
-        <v>-51</v>
+        <v>0</v>
       </c>
       <c r="AS26">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AT26">
-        <v>182</v>
+        <v>0</v>
       </c>
       <c r="AU26">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="AV26">
-        <v>119</v>
+        <v>0</v>
       </c>
       <c r="AW26">
-        <v>74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:49" x14ac:dyDescent="0.3">
@@ -4173,145 +4176,145 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="D27">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="E27">
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>268</v>
+        <v>0</v>
       </c>
       <c r="G27">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="H27">
-        <v>305</v>
+        <v>0</v>
       </c>
       <c r="I27">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="J27">
-        <v>195</v>
+        <v>0</v>
       </c>
       <c r="K27">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="L27">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="M27">
-        <v>172</v>
+        <v>0</v>
       </c>
       <c r="N27">
-        <v>208</v>
+        <v>0</v>
       </c>
       <c r="O27">
-        <v>151</v>
+        <v>0</v>
       </c>
       <c r="P27">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="Q27">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="R27">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="S27">
-        <v>131</v>
+        <v>0</v>
       </c>
       <c r="T27">
-        <v>179</v>
+        <v>0</v>
       </c>
       <c r="U27">
-        <v>209</v>
+        <v>0</v>
       </c>
       <c r="V27">
-        <v>138</v>
+        <v>0</v>
       </c>
       <c r="W27">
-        <v>218</v>
+        <v>0</v>
       </c>
       <c r="X27">
-        <v>133</v>
+        <v>0</v>
       </c>
       <c r="Y27">
-        <v>189</v>
+        <v>0</v>
       </c>
       <c r="Z27">
-        <v>262</v>
+        <v>0</v>
       </c>
       <c r="AA27">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AB27">
-        <v>191</v>
+        <v>0</v>
       </c>
       <c r="AC27">
-        <v>225</v>
+        <v>0</v>
       </c>
       <c r="AD27">
-        <v>231</v>
+        <v>0</v>
       </c>
       <c r="AE27">
-        <v>257</v>
+        <v>0</v>
       </c>
       <c r="AF27">
-        <v>246</v>
+        <v>0</v>
       </c>
       <c r="AG27">
-        <v>323</v>
+        <v>0</v>
       </c>
       <c r="AH27">
-        <v>269</v>
+        <v>0</v>
       </c>
       <c r="AI27">
-        <v>346</v>
+        <v>0</v>
       </c>
       <c r="AJ27">
-        <v>378</v>
+        <v>0</v>
       </c>
       <c r="AK27">
-        <v>367</v>
+        <v>0</v>
       </c>
       <c r="AL27">
-        <v>276</v>
+        <v>0</v>
       </c>
       <c r="AM27">
-        <v>359</v>
+        <v>0</v>
       </c>
       <c r="AN27">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="AO27">
-        <v>168</v>
+        <v>0</v>
       </c>
       <c r="AP27">
-        <v>136</v>
+        <v>0</v>
       </c>
       <c r="AQ27">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="AR27">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="AS27">
-        <v>194</v>
+        <v>0</v>
       </c>
       <c r="AT27">
-        <v>344</v>
+        <v>0</v>
       </c>
       <c r="AU27">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="AV27">
-        <v>228</v>
+        <v>0</v>
       </c>
       <c r="AW27">
-        <v>196</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:49" x14ac:dyDescent="0.3">
@@ -4319,145 +4322,145 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="D28">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="E28">
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>196</v>
+        <v>0</v>
       </c>
       <c r="G28">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="H28">
-        <v>225</v>
+        <v>0</v>
       </c>
       <c r="I28">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="J28">
-        <v>132</v>
+        <v>0</v>
       </c>
       <c r="K28">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="L28">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="M28">
-        <v>119</v>
+        <v>0</v>
       </c>
       <c r="N28">
-        <v>149</v>
+        <v>0</v>
       </c>
       <c r="O28">
-        <v>106</v>
+        <v>0</v>
       </c>
       <c r="P28">
-        <v>-13</v>
+        <v>0</v>
       </c>
       <c r="Q28">
-        <v>-19</v>
+        <v>0</v>
       </c>
       <c r="R28">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="S28">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="T28">
-        <v>134</v>
+        <v>0</v>
       </c>
       <c r="U28">
-        <v>158</v>
+        <v>0</v>
       </c>
       <c r="V28">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="W28">
-        <v>151</v>
+        <v>0</v>
       </c>
       <c r="X28">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="Y28">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="Z28">
-        <v>199</v>
+        <v>0</v>
       </c>
       <c r="AA28">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AB28">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AC28">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="AD28">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="AE28">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="AF28">
-        <v>176</v>
+        <v>0</v>
       </c>
       <c r="AG28">
-        <v>328</v>
+        <v>0</v>
       </c>
       <c r="AH28">
-        <v>259</v>
+        <v>0</v>
       </c>
       <c r="AI28">
-        <v>271</v>
+        <v>0</v>
       </c>
       <c r="AJ28">
-        <v>306</v>
+        <v>0</v>
       </c>
       <c r="AK28">
-        <v>301</v>
+        <v>0</v>
       </c>
       <c r="AL28">
-        <v>213</v>
+        <v>0</v>
       </c>
       <c r="AM28">
-        <v>352</v>
+        <v>0</v>
       </c>
       <c r="AN28">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AO28">
-        <v>119</v>
+        <v>0</v>
       </c>
       <c r="AP28">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AQ28">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="AR28">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="AS28">
-        <v>146</v>
+        <v>0</v>
       </c>
       <c r="AT28">
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="AU28">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="AV28">
-        <v>171</v>
+        <v>0</v>
       </c>
       <c r="AW28">
-        <v>139</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:49" x14ac:dyDescent="0.3">
@@ -4465,145 +4468,145 @@
         <v>27</v>
       </c>
       <c r="C29">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="D29">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="E29">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>176</v>
+        <v>0</v>
       </c>
       <c r="G29">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="H29">
-        <v>202</v>
+        <v>0</v>
       </c>
       <c r="I29">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="J29">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="K29">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="L29">
-        <v>-43</v>
+        <v>0</v>
       </c>
       <c r="M29">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="N29">
-        <v>124</v>
+        <v>0</v>
       </c>
       <c r="O29">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="P29">
-        <v>-14</v>
+        <v>0</v>
       </c>
       <c r="Q29">
-        <v>-45</v>
+        <v>0</v>
       </c>
       <c r="R29">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="S29">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="T29">
-        <v>119</v>
+        <v>0</v>
       </c>
       <c r="U29">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="V29">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="W29">
-        <v>127</v>
+        <v>0</v>
       </c>
       <c r="X29">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="Y29">
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="Z29">
-        <v>178</v>
+        <v>0</v>
       </c>
       <c r="AA29">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="AB29">
-        <v>129</v>
+        <v>0</v>
       </c>
       <c r="AC29">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AD29">
-        <v>156</v>
+        <v>0</v>
       </c>
       <c r="AE29">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="AF29">
-        <v>148</v>
+        <v>0</v>
       </c>
       <c r="AG29">
-        <v>305</v>
+        <v>0</v>
       </c>
       <c r="AH29">
-        <v>238</v>
+        <v>0</v>
       </c>
       <c r="AI29">
-        <v>242</v>
+        <v>0</v>
       </c>
       <c r="AJ29">
-        <v>283</v>
+        <v>0</v>
       </c>
       <c r="AK29">
-        <v>279</v>
+        <v>0</v>
       </c>
       <c r="AL29">
-        <v>194</v>
+        <v>0</v>
       </c>
       <c r="AM29">
-        <v>313</v>
+        <v>0</v>
       </c>
       <c r="AN29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AO29">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AP29">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="AQ29">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="AR29">
-        <v>-11</v>
+        <v>0</v>
       </c>
       <c r="AS29">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="AT29">
-        <v>229</v>
+        <v>0</v>
       </c>
       <c r="AU29">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="AV29">
-        <v>152</v>
+        <v>0</v>
       </c>
       <c r="AW29">
-        <v>116</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:49" x14ac:dyDescent="0.3">
@@ -4611,145 +4614,145 @@
         <v>28</v>
       </c>
       <c r="C30">
-        <v>-34</v>
+        <v>0</v>
       </c>
       <c r="D30">
-        <v>-34</v>
+        <v>0</v>
       </c>
       <c r="E30">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>122</v>
+        <v>0</v>
       </c>
       <c r="G30">
-        <v>-26</v>
+        <v>0</v>
       </c>
       <c r="H30">
-        <v>174</v>
+        <v>0</v>
       </c>
       <c r="I30">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J30">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="K30">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="L30">
-        <v>-31</v>
+        <v>0</v>
       </c>
       <c r="M30">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="N30">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="O30">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="P30">
-        <v>-37</v>
+        <v>0</v>
       </c>
       <c r="Q30">
-        <v>-35</v>
+        <v>0</v>
       </c>
       <c r="R30">
-        <v>-35</v>
+        <v>0</v>
       </c>
       <c r="S30">
-        <v>-19</v>
+        <v>0</v>
       </c>
       <c r="T30">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="U30">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="V30">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W30">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="X30">
-        <v>-43</v>
+        <v>0</v>
       </c>
       <c r="Y30">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="Z30">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="AA30">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="AB30">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="AC30">
-        <v>129</v>
+        <v>0</v>
       </c>
       <c r="AD30">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AE30">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AF30">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AG30">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="AH30">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="AI30">
-        <v>236</v>
+        <v>0</v>
       </c>
       <c r="AJ30">
-        <v>285</v>
+        <v>0</v>
       </c>
       <c r="AK30">
-        <v>281</v>
+        <v>0</v>
       </c>
       <c r="AL30">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AM30">
-        <v>297</v>
+        <v>0</v>
       </c>
       <c r="AN30">
-        <v>-11</v>
+        <v>0</v>
       </c>
       <c r="AO30">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="AP30">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="AQ30">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AR30">
-        <v>-37</v>
+        <v>0</v>
       </c>
       <c r="AS30">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="AT30">
-        <v>198</v>
+        <v>0</v>
       </c>
       <c r="AU30">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AV30">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="AW30">
-        <v>88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:49" x14ac:dyDescent="0.3">
@@ -4757,145 +4760,145 @@
         <v>29</v>
       </c>
       <c r="C31">
-        <v>-34</v>
+        <v>0</v>
       </c>
       <c r="D31">
-        <v>-34</v>
+        <v>0</v>
       </c>
       <c r="E31">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="G31">
-        <v>-38</v>
+        <v>0</v>
       </c>
       <c r="H31">
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="I31">
-        <v>-42</v>
+        <v>0</v>
       </c>
       <c r="J31">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="K31">
-        <v>-31</v>
+        <v>0</v>
       </c>
       <c r="L31">
-        <v>-46</v>
+        <v>0</v>
       </c>
       <c r="M31">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="N31">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="O31">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="P31">
-        <v>-52</v>
+        <v>0</v>
       </c>
       <c r="Q31">
-        <v>-48</v>
+        <v>0</v>
       </c>
       <c r="R31">
-        <v>-51</v>
+        <v>0</v>
       </c>
       <c r="S31">
-        <v>-37</v>
+        <v>0</v>
       </c>
       <c r="T31">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="U31">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="V31">
-        <v>-14</v>
+        <v>0</v>
       </c>
       <c r="W31">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="X31">
-        <v>-32</v>
+        <v>0</v>
       </c>
       <c r="Y31">
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>135</v>
+        <v>0</v>
       </c>
       <c r="AA31">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="AB31">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="AC31">
-        <v>114</v>
+        <v>0</v>
       </c>
       <c r="AD31">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AE31">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AF31">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="AG31">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AH31">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="AI31">
-        <v>198</v>
+        <v>0</v>
       </c>
       <c r="AJ31">
-        <v>230</v>
+        <v>0</v>
       </c>
       <c r="AK31">
-        <v>226</v>
+        <v>0</v>
       </c>
       <c r="AL31">
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="AM31">
-        <v>263</v>
+        <v>0</v>
       </c>
       <c r="AN31">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="AO31">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="AP31">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="AQ31">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AR31">
-        <v>-43</v>
+        <v>0</v>
       </c>
       <c r="AS31">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="AT31">
-        <v>177</v>
+        <v>0</v>
       </c>
       <c r="AU31">
-        <v>-14</v>
+        <v>0</v>
       </c>
       <c r="AV31">
-        <v>115</v>
+        <v>0</v>
       </c>
       <c r="AW31">
-        <v>69</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:49" x14ac:dyDescent="0.3">
@@ -4903,145 +4906,145 @@
         <v>30</v>
       </c>
       <c r="C32">
-        <v>-34</v>
+        <v>0</v>
       </c>
       <c r="D32">
-        <v>-34</v>
+        <v>0</v>
       </c>
       <c r="E32">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>139</v>
+        <v>0</v>
       </c>
       <c r="G32">
-        <v>-34</v>
+        <v>0</v>
       </c>
       <c r="H32">
-        <v>193</v>
+        <v>0</v>
       </c>
       <c r="I32">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J32">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="K32">
-        <v>-40</v>
+        <v>0</v>
       </c>
       <c r="L32">
-        <v>-12</v>
+        <v>0</v>
       </c>
       <c r="M32">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="N32">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="O32">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="P32">
-        <v>-30</v>
+        <v>0</v>
       </c>
       <c r="Q32">
-        <v>-29</v>
+        <v>0</v>
       </c>
       <c r="R32">
-        <v>-23</v>
+        <v>0</v>
       </c>
       <c r="S32">
-        <v>-37</v>
+        <v>0</v>
       </c>
       <c r="T32">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="U32">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="V32">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="W32">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="X32">
-        <v>-22</v>
+        <v>0</v>
       </c>
       <c r="Y32">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="Z32">
-        <v>147</v>
+        <v>0</v>
       </c>
       <c r="AA32">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="AB32">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="AC32">
-        <v>144</v>
+        <v>0</v>
       </c>
       <c r="AD32">
-        <v>134</v>
+        <v>0</v>
       </c>
       <c r="AE32">
-        <v>133</v>
+        <v>0</v>
       </c>
       <c r="AF32">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AG32">
-        <v>252</v>
+        <v>0</v>
       </c>
       <c r="AH32">
-        <v>171</v>
+        <v>0</v>
       </c>
       <c r="AI32">
-        <v>259</v>
+        <v>0</v>
       </c>
       <c r="AJ32">
-        <v>274</v>
+        <v>0</v>
       </c>
       <c r="AK32">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="AL32">
-        <v>113</v>
+        <v>0</v>
       </c>
       <c r="AM32">
-        <v>332</v>
+        <v>0</v>
       </c>
       <c r="AN32">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AO32">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="AP32">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="AQ32">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="AR32">
-        <v>-26</v>
+        <v>0</v>
       </c>
       <c r="AS32">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="AT32">
-        <v>218</v>
+        <v>0</v>
       </c>
       <c r="AU32">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AV32">
-        <v>145</v>
+        <v>0</v>
       </c>
       <c r="AW32">
-        <v>106</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:49" x14ac:dyDescent="0.3">
@@ -5049,145 +5052,145 @@
         <v>31</v>
       </c>
       <c r="C33">
-        <v>-34</v>
+        <v>0</v>
       </c>
       <c r="D33">
-        <v>-34</v>
+        <v>0</v>
       </c>
       <c r="E33">
-        <v>-11</v>
+        <v>0</v>
       </c>
       <c r="F33">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="G33">
-        <v>-47</v>
+        <v>0</v>
       </c>
       <c r="H33">
-        <v>132</v>
+        <v>0</v>
       </c>
       <c r="I33">
-        <v>-33</v>
+        <v>0</v>
       </c>
       <c r="J33">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="K33">
-        <v>-41</v>
+        <v>0</v>
       </c>
       <c r="L33">
-        <v>-71</v>
+        <v>0</v>
       </c>
       <c r="M33">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="N33">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="O33">
-        <v>-27</v>
+        <v>0</v>
       </c>
       <c r="P33">
-        <v>-84</v>
+        <v>0</v>
       </c>
       <c r="Q33">
-        <v>-75</v>
+        <v>0</v>
       </c>
       <c r="R33">
-        <v>-86</v>
+        <v>0</v>
       </c>
       <c r="S33">
-        <v>-42</v>
+        <v>0</v>
       </c>
       <c r="T33">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="U33">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="V33">
-        <v>-31</v>
+        <v>0</v>
       </c>
       <c r="W33">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="X33">
-        <v>-42</v>
+        <v>0</v>
       </c>
       <c r="Y33">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="Z33">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="AA33">
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="AB33">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AC33">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="AD33">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="AE33">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="AF33">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AG33">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AH33">
-        <v>-29</v>
+        <v>0</v>
       </c>
       <c r="AI33">
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="AJ33">
-        <v>186</v>
+        <v>0</v>
       </c>
       <c r="AK33">
-        <v>225</v>
+        <v>0</v>
       </c>
       <c r="AL33">
-        <v>136</v>
+        <v>0</v>
       </c>
       <c r="AM33">
-        <v>296</v>
+        <v>0</v>
       </c>
       <c r="AN33">
-        <v>-46</v>
+        <v>0</v>
       </c>
       <c r="AO33">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AP33">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="AQ33">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AR33">
-        <v>-68</v>
+        <v>0</v>
       </c>
       <c r="AS33">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="AT33">
-        <v>151</v>
+        <v>0</v>
       </c>
       <c r="AU33">
-        <v>-36</v>
+        <v>0</v>
       </c>
       <c r="AV33">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="AW33">
-        <v>46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:49" x14ac:dyDescent="0.3">
@@ -5195,145 +5198,145 @@
         <v>32</v>
       </c>
       <c r="C34">
-        <v>-34</v>
+        <v>0</v>
       </c>
       <c r="D34">
-        <v>-34</v>
+        <v>0</v>
       </c>
       <c r="E34">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="G34">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="H34">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="I34">
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="J34">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="K34">
-        <v>-28</v>
+        <v>0</v>
       </c>
       <c r="L34">
-        <v>-61</v>
+        <v>0</v>
       </c>
       <c r="M34">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N34">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="O34">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="P34">
-        <v>-77</v>
+        <v>0</v>
       </c>
       <c r="Q34">
-        <v>-63</v>
+        <v>0</v>
       </c>
       <c r="R34">
-        <v>-71</v>
+        <v>0</v>
       </c>
       <c r="S34">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="T34">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="U34">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="V34">
-        <v>-11</v>
+        <v>0</v>
       </c>
       <c r="W34">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="X34">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="Y34">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="Z34">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="AA34">
-        <v>-32</v>
+        <v>0</v>
       </c>
       <c r="AB34">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="AC34">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AD34">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="AE34">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="AF34">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="AG34">
-        <v>146</v>
+        <v>0</v>
       </c>
       <c r="AH34">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AI34">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="AJ34">
-        <v>242</v>
+        <v>0</v>
       </c>
       <c r="AK34">
-        <v>238</v>
+        <v>0</v>
       </c>
       <c r="AL34">
-        <v>159</v>
+        <v>0</v>
       </c>
       <c r="AM34">
-        <v>326</v>
+        <v>0</v>
       </c>
       <c r="AN34">
-        <v>-35</v>
+        <v>0</v>
       </c>
       <c r="AO34">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AP34">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="AQ34">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AR34">
-        <v>-51</v>
+        <v>0</v>
       </c>
       <c r="AS34">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AT34">
-        <v>182</v>
+        <v>0</v>
       </c>
       <c r="AU34">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="AV34">
-        <v>119</v>
+        <v>0</v>
       </c>
       <c r="AW34">
-        <v>74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:49" x14ac:dyDescent="0.3">
@@ -5341,142 +5344,142 @@
         <v>33</v>
       </c>
       <c r="C35">
-        <v>-34</v>
+        <v>0</v>
       </c>
       <c r="D35">
-        <v>-34</v>
+        <v>0</v>
       </c>
       <c r="E35">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="G35">
-        <v>-41</v>
+        <v>0</v>
       </c>
       <c r="H35">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="I35">
-        <v>-33</v>
+        <v>0</v>
       </c>
       <c r="J35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K35">
-        <v>-32</v>
+        <v>0</v>
       </c>
       <c r="L35">
-        <v>-56</v>
+        <v>0</v>
       </c>
       <c r="M35">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="N35">
-        <v>-28</v>
+        <v>0</v>
       </c>
       <c r="O35">
-        <v>-35</v>
+        <v>0</v>
       </c>
       <c r="P35">
-        <v>-71</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>-61</v>
+        <v>0</v>
       </c>
       <c r="R35">
-        <v>-51</v>
+        <v>0</v>
       </c>
       <c r="S35">
-        <v>-40</v>
+        <v>0</v>
       </c>
       <c r="T35">
-        <v>-29</v>
+        <v>0</v>
       </c>
       <c r="U35">
-        <v>-19</v>
+        <v>0</v>
       </c>
       <c r="V35">
-        <v>-36</v>
+        <v>0</v>
       </c>
       <c r="W35">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X35">
-        <v>-40</v>
+        <v>0</v>
       </c>
       <c r="Y35">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="Z35">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="AA35">
-        <v>-14</v>
+        <v>0</v>
       </c>
       <c r="AB35">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="AC35">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="AD35">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AE35">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AF35">
-        <v>-23</v>
+        <v>0</v>
       </c>
       <c r="AG35">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="AH35">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="AI35">
-        <v>149</v>
+        <v>0</v>
       </c>
       <c r="AJ35">
-        <v>126</v>
+        <v>0</v>
       </c>
       <c r="AK35">
-        <v>166</v>
+        <v>0</v>
       </c>
       <c r="AL35">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="AM35">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="AN35">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="AO35">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="AP35">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AQ35">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="AR35">
-        <v>-57</v>
+        <v>0</v>
       </c>
       <c r="AS35">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="AT35">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AU35">
-        <v>-37</v>
+        <v>0</v>
       </c>
       <c r="AV35">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AW35">
         <v>0</v>
@@ -5487,142 +5490,142 @@
         <v>34</v>
       </c>
       <c r="C36">
-        <v>-34</v>
+        <v>0</v>
       </c>
       <c r="D36">
-        <v>-34</v>
+        <v>0</v>
       </c>
       <c r="E36">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="G36">
-        <v>-41</v>
+        <v>0</v>
       </c>
       <c r="H36">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="I36">
-        <v>-33</v>
+        <v>0</v>
       </c>
       <c r="J36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K36">
-        <v>-32</v>
+        <v>0</v>
       </c>
       <c r="L36">
-        <v>-56</v>
+        <v>0</v>
       </c>
       <c r="M36">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="N36">
-        <v>-28</v>
+        <v>0</v>
       </c>
       <c r="O36">
-        <v>-35</v>
+        <v>0</v>
       </c>
       <c r="P36">
-        <v>-71</v>
+        <v>0</v>
       </c>
       <c r="Q36">
-        <v>-61</v>
+        <v>0</v>
       </c>
       <c r="R36">
-        <v>-51</v>
+        <v>0</v>
       </c>
       <c r="S36">
-        <v>-40</v>
+        <v>0</v>
       </c>
       <c r="T36">
-        <v>-29</v>
+        <v>0</v>
       </c>
       <c r="U36">
-        <v>-19</v>
+        <v>0</v>
       </c>
       <c r="V36">
-        <v>-36</v>
+        <v>0</v>
       </c>
       <c r="W36">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X36">
-        <v>-40</v>
+        <v>0</v>
       </c>
       <c r="Y36">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="Z36">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="AA36">
-        <v>-14</v>
+        <v>0</v>
       </c>
       <c r="AB36">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="AC36">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="AD36">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AE36">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AF36">
-        <v>-23</v>
+        <v>0</v>
       </c>
       <c r="AG36">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="AH36">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="AI36">
-        <v>149</v>
+        <v>0</v>
       </c>
       <c r="AJ36">
-        <v>149</v>
+        <v>0</v>
       </c>
       <c r="AK36">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="AL36">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="AM36">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="AN36">
-        <v>-14</v>
+        <v>0</v>
       </c>
       <c r="AO36">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="AP36">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AQ36">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="AR36">
-        <v>-57</v>
+        <v>0</v>
       </c>
       <c r="AS36">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="AT36">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AU36">
-        <v>-37</v>
+        <v>0</v>
       </c>
       <c r="AV36">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AW36">
         <v>0</v>
@@ -5633,142 +5636,142 @@
         <v>35</v>
       </c>
       <c r="C37">
-        <v>-34</v>
+        <v>0</v>
       </c>
       <c r="D37">
-        <v>-34</v>
+        <v>0</v>
       </c>
       <c r="E37">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="F37">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="G37">
-        <v>-41</v>
+        <v>0</v>
       </c>
       <c r="H37">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="I37">
-        <v>-33</v>
+        <v>0</v>
       </c>
       <c r="J37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K37">
-        <v>-32</v>
+        <v>0</v>
       </c>
       <c r="L37">
-        <v>-56</v>
+        <v>0</v>
       </c>
       <c r="M37">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="N37">
-        <v>-28</v>
+        <v>0</v>
       </c>
       <c r="O37">
-        <v>-35</v>
+        <v>0</v>
       </c>
       <c r="P37">
-        <v>-71</v>
+        <v>0</v>
       </c>
       <c r="Q37">
-        <v>-61</v>
+        <v>0</v>
       </c>
       <c r="R37">
-        <v>-51</v>
+        <v>0</v>
       </c>
       <c r="S37">
-        <v>-40</v>
+        <v>0</v>
       </c>
       <c r="T37">
-        <v>-29</v>
+        <v>0</v>
       </c>
       <c r="U37">
-        <v>-19</v>
+        <v>0</v>
       </c>
       <c r="V37">
-        <v>-36</v>
+        <v>0</v>
       </c>
       <c r="W37">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X37">
-        <v>-40</v>
+        <v>0</v>
       </c>
       <c r="Y37">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="Z37">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="AA37">
-        <v>-14</v>
+        <v>0</v>
       </c>
       <c r="AB37">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="AC37">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="AD37">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AE37">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AF37">
-        <v>-23</v>
+        <v>0</v>
       </c>
       <c r="AG37">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="AH37">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="AI37">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="AJ37">
-        <v>111</v>
+        <v>0</v>
       </c>
       <c r="AK37">
-        <v>149</v>
+        <v>0</v>
       </c>
       <c r="AL37">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="AM37">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="AN37">
-        <v>-14</v>
+        <v>0</v>
       </c>
       <c r="AO37">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="AP37">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AQ37">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="AR37">
-        <v>-57</v>
+        <v>0</v>
       </c>
       <c r="AS37">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="AT37">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AU37">
-        <v>-37</v>
+        <v>0</v>
       </c>
       <c r="AV37">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AW37">
         <v>0</v>
@@ -5779,145 +5782,145 @@
         <v>36</v>
       </c>
       <c r="C38">
-        <v>-34</v>
+        <v>0</v>
       </c>
       <c r="D38">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E38">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>159</v>
+        <v>0</v>
       </c>
       <c r="G38">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H38">
-        <v>183</v>
+        <v>0</v>
       </c>
       <c r="I38">
-        <v>-17</v>
+        <v>0</v>
       </c>
       <c r="J38">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="K38">
-        <v>-34</v>
+        <v>0</v>
       </c>
       <c r="L38">
-        <v>-22</v>
+        <v>0</v>
       </c>
       <c r="M38">
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="N38">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="O38">
-        <v>-29</v>
+        <v>0</v>
       </c>
       <c r="P38">
-        <v>-39</v>
+        <v>0</v>
       </c>
       <c r="Q38">
-        <v>-42</v>
+        <v>0</v>
       </c>
       <c r="R38">
-        <v>-36</v>
+        <v>0</v>
       </c>
       <c r="S38">
-        <v>-19</v>
+        <v>0</v>
       </c>
       <c r="T38">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="U38">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="V38">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="W38">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="X38">
-        <v>-18</v>
+        <v>0</v>
       </c>
       <c r="Y38">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="Z38">
-        <v>161</v>
+        <v>0</v>
       </c>
       <c r="AA38">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="AB38">
-        <v>116</v>
+        <v>0</v>
       </c>
       <c r="AC38">
-        <v>137</v>
+        <v>0</v>
       </c>
       <c r="AD38">
-        <v>141</v>
+        <v>0</v>
       </c>
       <c r="AE38">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="AF38">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="AG38">
-        <v>199</v>
+        <v>0</v>
       </c>
       <c r="AH38">
-        <v>163</v>
+        <v>0</v>
       </c>
       <c r="AI38">
-        <v>219</v>
+        <v>0</v>
       </c>
       <c r="AJ38">
-        <v>265</v>
+        <v>0</v>
       </c>
       <c r="AK38">
-        <v>275</v>
+        <v>0</v>
       </c>
       <c r="AL38">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AM38">
-        <v>278</v>
+        <v>0</v>
       </c>
       <c r="AN38">
-        <v>-21</v>
+        <v>0</v>
       </c>
       <c r="AO38">
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="AP38">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="AQ38">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="AR38">
-        <v>-37</v>
+        <v>0</v>
       </c>
       <c r="AS38">
-        <v>117</v>
+        <v>0</v>
       </c>
       <c r="AT38">
-        <v>208</v>
+        <v>0</v>
       </c>
       <c r="AU38">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AV38">
-        <v>137</v>
+        <v>0</v>
       </c>
       <c r="AW38">
-        <v>54</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:49" x14ac:dyDescent="0.3">
@@ -5925,145 +5928,145 @@
         <v>37</v>
       </c>
       <c r="C39">
-        <v>-34</v>
+        <v>0</v>
       </c>
       <c r="D39">
-        <v>-34</v>
+        <v>0</v>
       </c>
       <c r="E39">
-        <v>-31</v>
+        <v>0</v>
       </c>
       <c r="F39">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="G39">
-        <v>-41</v>
+        <v>0</v>
       </c>
       <c r="H39">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="I39">
-        <v>-39</v>
+        <v>0</v>
       </c>
       <c r="J39">
-        <v>-12</v>
+        <v>0</v>
       </c>
       <c r="K39">
-        <v>-49</v>
+        <v>0</v>
       </c>
       <c r="L39">
-        <v>-56</v>
+        <v>0</v>
       </c>
       <c r="M39">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="N39">
-        <v>-32</v>
+        <v>0</v>
       </c>
       <c r="O39">
-        <v>-17</v>
+        <v>0</v>
       </c>
       <c r="P39">
-        <v>-58</v>
+        <v>0</v>
       </c>
       <c r="Q39">
-        <v>-67</v>
+        <v>0</v>
       </c>
       <c r="R39">
-        <v>-54</v>
+        <v>0</v>
       </c>
       <c r="S39">
-        <v>-46</v>
+        <v>0</v>
       </c>
       <c r="T39">
-        <v>-24</v>
+        <v>0</v>
       </c>
       <c r="U39">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="V39">
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="W39">
-        <v>-11</v>
+        <v>0</v>
       </c>
       <c r="X39">
-        <v>-46</v>
+        <v>0</v>
       </c>
       <c r="Y39">
-        <v>-13</v>
+        <v>0</v>
       </c>
       <c r="Z39">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="AA39">
-        <v>-21</v>
+        <v>0</v>
       </c>
       <c r="AB39">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="AC39">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="AD39">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AE39">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="AF39">
-        <v>-11</v>
+        <v>0</v>
       </c>
       <c r="AG39">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="AH39">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="AI39">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AJ39">
-        <v>126</v>
+        <v>0</v>
       </c>
       <c r="AK39">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="AL39">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="AM39">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AN39">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="AO39">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="AP39">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AQ39">
-        <v>-22</v>
+        <v>0</v>
       </c>
       <c r="AR39">
-        <v>-71</v>
+        <v>0</v>
       </c>
       <c r="AS39">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="AT39">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="AU39">
-        <v>-42</v>
+        <v>0</v>
       </c>
       <c r="AV39">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="AW39">
-        <v>-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:49" x14ac:dyDescent="0.3">
@@ -6071,145 +6074,145 @@
         <v>38</v>
       </c>
       <c r="C40">
-        <v>-31</v>
+        <v>0</v>
       </c>
       <c r="D40">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E40">
-        <v>209</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>376</v>
+        <v>0</v>
       </c>
       <c r="G40">
-        <v>149</v>
+        <v>0</v>
       </c>
       <c r="H40">
-        <v>465</v>
+        <v>0</v>
       </c>
       <c r="I40">
-        <v>134</v>
+        <v>0</v>
       </c>
       <c r="J40">
-        <v>279</v>
+        <v>0</v>
       </c>
       <c r="K40">
-        <v>126</v>
+        <v>0</v>
       </c>
       <c r="L40">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="M40">
-        <v>236</v>
+        <v>0</v>
       </c>
       <c r="N40">
-        <v>274</v>
+        <v>0</v>
       </c>
       <c r="O40">
-        <v>201</v>
+        <v>0</v>
       </c>
       <c r="P40">
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="Q40">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="R40">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="S40">
-        <v>186</v>
+        <v>0</v>
       </c>
       <c r="T40">
-        <v>238</v>
+        <v>0</v>
       </c>
       <c r="U40">
-        <v>276</v>
+        <v>0</v>
       </c>
       <c r="V40">
-        <v>188</v>
+        <v>0</v>
       </c>
       <c r="W40">
-        <v>301</v>
+        <v>0</v>
       </c>
       <c r="X40">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="Y40">
-        <v>262</v>
+        <v>0</v>
       </c>
       <c r="Z40">
-        <v>346</v>
+        <v>0</v>
       </c>
       <c r="AA40">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="AB40">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="AC40">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="AD40">
-        <v>305</v>
+        <v>0</v>
       </c>
       <c r="AE40">
-        <v>356</v>
+        <v>0</v>
       </c>
       <c r="AF40">
-        <v>328</v>
+        <v>0</v>
       </c>
       <c r="AG40">
-        <v>476</v>
+        <v>0</v>
       </c>
       <c r="AH40">
-        <v>368</v>
+        <v>0</v>
       </c>
       <c r="AI40">
-        <v>505</v>
+        <v>0</v>
       </c>
       <c r="AJ40">
-        <v>545</v>
+        <v>0</v>
       </c>
       <c r="AK40">
-        <v>521</v>
+        <v>0</v>
       </c>
       <c r="AL40">
-        <v>368</v>
+        <v>0</v>
       </c>
       <c r="AM40">
-        <v>538</v>
+        <v>0</v>
       </c>
       <c r="AN40">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AO40">
-        <v>222</v>
+        <v>0</v>
       </c>
       <c r="AP40">
-        <v>184</v>
+        <v>0</v>
       </c>
       <c r="AQ40">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="AR40">
-        <v>114</v>
+        <v>0</v>
       </c>
       <c r="AS40">
-        <v>257</v>
+        <v>0</v>
       </c>
       <c r="AT40">
-        <v>474</v>
+        <v>0</v>
       </c>
       <c r="AU40">
-        <v>118</v>
+        <v>0</v>
       </c>
       <c r="AV40">
-        <v>309</v>
+        <v>0</v>
       </c>
       <c r="AW40">
-        <v>261</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:49" x14ac:dyDescent="0.3">
@@ -6217,145 +6220,145 @@
         <v>39</v>
       </c>
       <c r="C41">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="D41">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E41">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>192</v>
+        <v>0</v>
       </c>
       <c r="G41">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="H41">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="I41">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="J41">
-        <v>127</v>
+        <v>0</v>
       </c>
       <c r="K41">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="L41">
-        <v>-24</v>
+        <v>0</v>
       </c>
       <c r="M41">
-        <v>115</v>
+        <v>0</v>
       </c>
       <c r="N41">
-        <v>144</v>
+        <v>0</v>
       </c>
       <c r="O41">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="P41">
-        <v>-21</v>
+        <v>0</v>
       </c>
       <c r="Q41">
-        <v>-24</v>
+        <v>0</v>
       </c>
       <c r="R41">
-        <v>-23</v>
+        <v>0</v>
       </c>
       <c r="S41">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="T41">
-        <v>131</v>
+        <v>0</v>
       </c>
       <c r="U41">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="V41">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="W41">
-        <v>146</v>
+        <v>0</v>
       </c>
       <c r="X41">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="Y41">
-        <v>126</v>
+        <v>0</v>
       </c>
       <c r="Z41">
-        <v>194</v>
+        <v>0</v>
       </c>
       <c r="AA41">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="AB41">
-        <v>142</v>
+        <v>0</v>
       </c>
       <c r="AC41">
-        <v>166</v>
+        <v>0</v>
       </c>
       <c r="AD41">
-        <v>171</v>
+        <v>0</v>
       </c>
       <c r="AE41">
-        <v>186</v>
+        <v>0</v>
       </c>
       <c r="AF41">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="AG41">
-        <v>222</v>
+        <v>0</v>
       </c>
       <c r="AH41">
-        <v>196</v>
+        <v>0</v>
       </c>
       <c r="AI41">
-        <v>294</v>
+        <v>0</v>
       </c>
       <c r="AJ41">
-        <v>331</v>
+        <v>0</v>
       </c>
       <c r="AK41">
-        <v>326</v>
+        <v>0</v>
       </c>
       <c r="AL41">
-        <v>209</v>
+        <v>0</v>
       </c>
       <c r="AM41">
-        <v>246</v>
+        <v>0</v>
       </c>
       <c r="AN41">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AO41">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AP41">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="AQ41">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="AR41">
-        <v>-22</v>
+        <v>0</v>
       </c>
       <c r="AS41">
-        <v>143</v>
+        <v>0</v>
       </c>
       <c r="AT41">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="AU41">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="AV41">
-        <v>167</v>
+        <v>0</v>
       </c>
       <c r="AW41">
-        <v>134</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:49" x14ac:dyDescent="0.3">
@@ -6363,145 +6366,145 @@
         <v>40</v>
       </c>
       <c r="C42">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="D42">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E42">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>176</v>
+        <v>0</v>
       </c>
       <c r="G42">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="H42">
-        <v>231</v>
+        <v>0</v>
       </c>
       <c r="I42">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="J42">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="K42">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="L42">
-        <v>-43</v>
+        <v>0</v>
       </c>
       <c r="M42">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="N42">
-        <v>124</v>
+        <v>0</v>
       </c>
       <c r="O42">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="P42">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="Q42">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="R42">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="S42">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="T42">
-        <v>119</v>
+        <v>0</v>
       </c>
       <c r="U42">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="V42">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="W42">
-        <v>127</v>
+        <v>0</v>
       </c>
       <c r="X42">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="Y42">
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="Z42">
-        <v>178</v>
+        <v>0</v>
       </c>
       <c r="AA42">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="AB42">
-        <v>129</v>
+        <v>0</v>
       </c>
       <c r="AC42">
-        <v>151</v>
+        <v>0</v>
       </c>
       <c r="AD42">
-        <v>156</v>
+        <v>0</v>
       </c>
       <c r="AE42">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="AF42">
-        <v>148</v>
+        <v>0</v>
       </c>
       <c r="AG42">
-        <v>203</v>
+        <v>0</v>
       </c>
       <c r="AH42">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="AI42">
-        <v>271</v>
+        <v>0</v>
       </c>
       <c r="AJ42">
-        <v>283</v>
+        <v>0</v>
       </c>
       <c r="AK42">
-        <v>279</v>
+        <v>0</v>
       </c>
       <c r="AL42">
-        <v>194</v>
+        <v>0</v>
       </c>
       <c r="AM42">
-        <v>226</v>
+        <v>0</v>
       </c>
       <c r="AN42">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AO42">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AP42">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AQ42">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="AR42">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="AS42">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="AT42">
-        <v>229</v>
+        <v>0</v>
       </c>
       <c r="AU42">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="AV42">
-        <v>152</v>
+        <v>0</v>
       </c>
       <c r="AW42">
-        <v>116</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:49" x14ac:dyDescent="0.3">
@@ -6509,145 +6512,145 @@
         <v>41</v>
       </c>
       <c r="C43">
-        <v>-34</v>
+        <v>0</v>
       </c>
       <c r="D43">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E43">
-        <v>158</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <v>273</v>
+        <v>0</v>
       </c>
       <c r="G43">
-        <v>107</v>
+        <v>0</v>
       </c>
       <c r="H43">
-        <v>310</v>
+        <v>0</v>
       </c>
       <c r="I43">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="J43">
-        <v>199</v>
+        <v>0</v>
       </c>
       <c r="K43">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="L43">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="M43">
-        <v>176</v>
+        <v>0</v>
       </c>
       <c r="N43">
-        <v>213</v>
+        <v>0</v>
       </c>
       <c r="O43">
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="P43">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="Q43">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="R43">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="S43">
-        <v>136</v>
+        <v>0</v>
       </c>
       <c r="T43">
-        <v>182</v>
+        <v>0</v>
       </c>
       <c r="U43">
-        <v>212</v>
+        <v>0</v>
       </c>
       <c r="V43">
-        <v>141</v>
+        <v>0</v>
       </c>
       <c r="W43">
-        <v>223</v>
+        <v>0</v>
       </c>
       <c r="X43">
-        <v>139</v>
+        <v>0</v>
       </c>
       <c r="Y43">
-        <v>193</v>
+        <v>0</v>
       </c>
       <c r="Z43">
-        <v>266</v>
+        <v>0</v>
       </c>
       <c r="AA43">
-        <v>93</v>
+        <v>0</v>
       </c>
       <c r="AB43">
-        <v>194</v>
+        <v>0</v>
       </c>
       <c r="AC43">
-        <v>229</v>
+        <v>0</v>
       </c>
       <c r="AD43">
-        <v>235</v>
+        <v>0</v>
       </c>
       <c r="AE43">
-        <v>261</v>
+        <v>0</v>
       </c>
       <c r="AF43">
-        <v>252</v>
+        <v>0</v>
       </c>
       <c r="AG43">
-        <v>313</v>
+        <v>0</v>
       </c>
       <c r="AH43">
-        <v>274</v>
+        <v>0</v>
       </c>
       <c r="AI43">
-        <v>352</v>
+        <v>0</v>
       </c>
       <c r="AJ43">
-        <v>382</v>
+        <v>0</v>
       </c>
       <c r="AK43">
-        <v>371</v>
+        <v>0</v>
       </c>
       <c r="AL43">
-        <v>280</v>
+        <v>0</v>
       </c>
       <c r="AM43">
-        <v>364</v>
+        <v>0</v>
       </c>
       <c r="AN43">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="AO43">
-        <v>172</v>
+        <v>0</v>
       </c>
       <c r="AP43">
-        <v>138</v>
+        <v>0</v>
       </c>
       <c r="AQ43">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AR43">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="AS43">
-        <v>197</v>
+        <v>0</v>
       </c>
       <c r="AT43">
-        <v>349</v>
+        <v>0</v>
       </c>
       <c r="AU43">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="AV43">
-        <v>232</v>
+        <v>0</v>
       </c>
       <c r="AW43">
-        <v>201</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:49" x14ac:dyDescent="0.3">
@@ -6655,145 +6658,145 @@
         <v>42</v>
       </c>
       <c r="C44">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="D44">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E44">
-        <v>212</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <v>386</v>
+        <v>0</v>
       </c>
       <c r="G44">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="H44">
-        <v>433</v>
+        <v>0</v>
       </c>
       <c r="I44">
-        <v>135</v>
+        <v>0</v>
       </c>
       <c r="J44">
-        <v>285</v>
+        <v>0</v>
       </c>
       <c r="K44">
-        <v>127</v>
+        <v>0</v>
       </c>
       <c r="L44">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="M44">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="N44">
-        <v>277</v>
+        <v>0</v>
       </c>
       <c r="O44">
-        <v>174</v>
+        <v>0</v>
       </c>
       <c r="P44">
-        <v>127</v>
+        <v>0</v>
       </c>
       <c r="Q44">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="R44">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="S44">
-        <v>187</v>
+        <v>0</v>
       </c>
       <c r="T44">
-        <v>242</v>
+        <v>0</v>
       </c>
       <c r="U44">
-        <v>281</v>
+        <v>0</v>
       </c>
       <c r="V44">
-        <v>191</v>
+        <v>0</v>
       </c>
       <c r="W44">
-        <v>306</v>
+        <v>0</v>
       </c>
       <c r="X44">
-        <v>192</v>
+        <v>0</v>
       </c>
       <c r="Y44">
-        <v>267</v>
+        <v>0</v>
       </c>
       <c r="Z44">
-        <v>352</v>
+        <v>0</v>
       </c>
       <c r="AA44">
-        <v>127</v>
+        <v>0</v>
       </c>
       <c r="AB44">
-        <v>254</v>
+        <v>0</v>
       </c>
       <c r="AC44">
-        <v>306</v>
+        <v>0</v>
       </c>
       <c r="AD44">
-        <v>310</v>
+        <v>0</v>
       </c>
       <c r="AE44">
-        <v>365</v>
+        <v>0</v>
       </c>
       <c r="AF44">
-        <v>332</v>
+        <v>0</v>
       </c>
       <c r="AG44">
-        <v>444</v>
+        <v>0</v>
       </c>
       <c r="AH44">
-        <v>376</v>
+        <v>0</v>
       </c>
       <c r="AI44">
-        <v>520</v>
+        <v>0</v>
       </c>
       <c r="AJ44">
-        <v>563</v>
+        <v>0</v>
       </c>
       <c r="AK44">
-        <v>537</v>
+        <v>0</v>
       </c>
       <c r="AL44">
-        <v>376</v>
+        <v>0</v>
       </c>
       <c r="AM44">
-        <v>557</v>
+        <v>0</v>
       </c>
       <c r="AN44">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="AO44">
-        <v>225</v>
+        <v>0</v>
       </c>
       <c r="AP44">
-        <v>188</v>
+        <v>0</v>
       </c>
       <c r="AQ44">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="AR44">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AS44">
-        <v>262</v>
+        <v>0</v>
       </c>
       <c r="AT44">
-        <v>486</v>
+        <v>0</v>
       </c>
       <c r="AU44">
-        <v>116</v>
+        <v>0</v>
       </c>
       <c r="AV44">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="AW44">
-        <v>264</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:49" x14ac:dyDescent="0.3">
@@ -6801,145 +6804,145 @@
         <v>43</v>
       </c>
       <c r="C45">
-        <v>-34</v>
+        <v>0</v>
       </c>
       <c r="D45">
-        <v>-34</v>
+        <v>0</v>
       </c>
       <c r="E45">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="F45">
-        <v>184</v>
+        <v>0</v>
       </c>
       <c r="G45">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="H45">
-        <v>211</v>
+        <v>0</v>
       </c>
       <c r="I45">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="J45">
-        <v>119</v>
+        <v>0</v>
       </c>
       <c r="K45">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="L45">
-        <v>-34</v>
+        <v>0</v>
       </c>
       <c r="M45">
-        <v>107</v>
+        <v>0</v>
       </c>
       <c r="N45">
-        <v>134</v>
+        <v>0</v>
       </c>
       <c r="O45">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="P45">
-        <v>-38</v>
+        <v>0</v>
       </c>
       <c r="Q45">
-        <v>-35</v>
+        <v>0</v>
       </c>
       <c r="R45">
-        <v>-36</v>
+        <v>0</v>
       </c>
       <c r="S45">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="T45">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="U45">
-        <v>147</v>
+        <v>0</v>
       </c>
       <c r="V45">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="W45">
-        <v>137</v>
+        <v>0</v>
       </c>
       <c r="X45">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="Y45">
-        <v>117</v>
+        <v>0</v>
       </c>
       <c r="Z45">
-        <v>186</v>
+        <v>0</v>
       </c>
       <c r="AA45">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="AB45">
-        <v>136</v>
+        <v>0</v>
       </c>
       <c r="AC45">
-        <v>159</v>
+        <v>0</v>
       </c>
       <c r="AD45">
-        <v>164</v>
+        <v>0</v>
       </c>
       <c r="AE45">
-        <v>178</v>
+        <v>0</v>
       </c>
       <c r="AF45">
-        <v>159</v>
+        <v>0</v>
       </c>
       <c r="AG45">
-        <v>212</v>
+        <v>0</v>
       </c>
       <c r="AH45">
-        <v>188</v>
+        <v>0</v>
       </c>
       <c r="AI45">
-        <v>224</v>
+        <v>0</v>
       </c>
       <c r="AJ45">
-        <v>263</v>
+        <v>0</v>
       </c>
       <c r="AK45">
-        <v>259</v>
+        <v>0</v>
       </c>
       <c r="AL45">
-        <v>201</v>
+        <v>0</v>
       </c>
       <c r="AM45">
-        <v>236</v>
+        <v>0</v>
       </c>
       <c r="AN45">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AO45">
-        <v>106</v>
+        <v>0</v>
       </c>
       <c r="AP45">
-        <v>93</v>
+        <v>0</v>
       </c>
       <c r="AQ45">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="AR45">
-        <v>-37</v>
+        <v>0</v>
       </c>
       <c r="AS45">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AT45">
-        <v>239</v>
+        <v>0</v>
       </c>
       <c r="AU45">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="AV45">
-        <v>159</v>
+        <v>0</v>
       </c>
       <c r="AW45">
-        <v>125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:49" x14ac:dyDescent="0.3">
@@ -6947,145 +6950,145 @@
         <v>44</v>
       </c>
       <c r="C46">
-        <v>-34</v>
+        <v>0</v>
       </c>
       <c r="D46">
-        <v>-34</v>
+        <v>0</v>
       </c>
       <c r="E46">
-        <v>-17</v>
+        <v>0</v>
       </c>
       <c r="F46">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="G46">
-        <v>-18</v>
+        <v>0</v>
       </c>
       <c r="H46">
-        <v>179</v>
+        <v>0</v>
       </c>
       <c r="I46">
-        <v>-42</v>
+        <v>0</v>
       </c>
       <c r="J46">
-        <v>-28</v>
+        <v>0</v>
       </c>
       <c r="K46">
-        <v>-27</v>
+        <v>0</v>
       </c>
       <c r="L46">
-        <v>-48</v>
+        <v>0</v>
       </c>
       <c r="M46">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="N46">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="O46">
-        <v>-22</v>
+        <v>0</v>
       </c>
       <c r="P46">
-        <v>-42</v>
+        <v>0</v>
       </c>
       <c r="Q46">
-        <v>-44</v>
+        <v>0</v>
       </c>
       <c r="R46">
-        <v>-44</v>
+        <v>0</v>
       </c>
       <c r="S46">
-        <v>-38</v>
+        <v>0</v>
       </c>
       <c r="T46">
-        <v>-27</v>
+        <v>0</v>
       </c>
       <c r="U46">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="V46">
-        <v>-41</v>
+        <v>0</v>
       </c>
       <c r="W46">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="X46">
-        <v>-37</v>
+        <v>0</v>
       </c>
       <c r="Y46">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="Z46">
-        <v>127</v>
+        <v>0</v>
       </c>
       <c r="AA46">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AB46">
-        <v>113</v>
+        <v>0</v>
       </c>
       <c r="AC46">
-        <v>133</v>
+        <v>0</v>
       </c>
       <c r="AD46">
-        <v>137</v>
+        <v>0</v>
       </c>
       <c r="AE46">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="AF46">
-        <v>119</v>
+        <v>0</v>
       </c>
       <c r="AG46">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="AH46">
-        <v>158</v>
+        <v>0</v>
       </c>
       <c r="AI46">
-        <v>213</v>
+        <v>0</v>
       </c>
       <c r="AJ46">
-        <v>232</v>
+        <v>0</v>
       </c>
       <c r="AK46">
-        <v>227</v>
+        <v>0</v>
       </c>
       <c r="AL46">
-        <v>-18</v>
+        <v>0</v>
       </c>
       <c r="AM46">
-        <v>201</v>
+        <v>0</v>
       </c>
       <c r="AN46">
-        <v>-24</v>
+        <v>0</v>
       </c>
       <c r="AO46">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="AP46">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="AQ46">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AR46">
-        <v>-51</v>
+        <v>0</v>
       </c>
       <c r="AS46">
-        <v>113</v>
+        <v>0</v>
       </c>
       <c r="AT46">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AU46">
-        <v>-21</v>
+        <v>0</v>
       </c>
       <c r="AV46">
-        <v>134</v>
+        <v>0</v>
       </c>
       <c r="AW46">
-        <v>93</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:49" x14ac:dyDescent="0.3">
@@ -7093,145 +7096,145 @@
         <v>45</v>
       </c>
       <c r="C47">
-        <v>-34</v>
+        <v>0</v>
       </c>
       <c r="D47">
-        <v>-35</v>
+        <v>0</v>
       </c>
       <c r="E47">
-        <v>195</v>
+        <v>0</v>
       </c>
       <c r="F47">
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="G47">
-        <v>133</v>
+        <v>0</v>
       </c>
       <c r="H47">
-        <v>405</v>
+        <v>0</v>
       </c>
       <c r="I47">
-        <v>119</v>
+        <v>0</v>
       </c>
       <c r="J47">
-        <v>263</v>
+        <v>0</v>
       </c>
       <c r="K47">
-        <v>112</v>
+        <v>0</v>
       </c>
       <c r="L47">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="M47">
-        <v>221</v>
+        <v>0</v>
       </c>
       <c r="N47">
-        <v>256</v>
+        <v>0</v>
       </c>
       <c r="O47">
-        <v>187</v>
+        <v>0</v>
       </c>
       <c r="P47">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="Q47">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="R47">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="S47">
-        <v>166</v>
+        <v>0</v>
       </c>
       <c r="T47">
-        <v>227</v>
+        <v>0</v>
       </c>
       <c r="U47">
-        <v>263</v>
+        <v>0</v>
       </c>
       <c r="V47">
-        <v>176</v>
+        <v>0</v>
       </c>
       <c r="W47">
-        <v>283</v>
+        <v>0</v>
       </c>
       <c r="X47">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="Y47">
-        <v>246</v>
+        <v>0</v>
       </c>
       <c r="Z47">
-        <v>330</v>
+        <v>0</v>
       </c>
       <c r="AA47">
-        <v>116</v>
+        <v>0</v>
       </c>
       <c r="AB47">
-        <v>238</v>
+        <v>0</v>
       </c>
       <c r="AC47">
-        <v>287</v>
+        <v>0</v>
       </c>
       <c r="AD47">
-        <v>291</v>
+        <v>0</v>
       </c>
       <c r="AE47">
-        <v>341</v>
+        <v>0</v>
       </c>
       <c r="AF47">
-        <v>307</v>
+        <v>0</v>
       </c>
       <c r="AG47">
-        <v>415</v>
+        <v>0</v>
       </c>
       <c r="AH47">
-        <v>352</v>
+        <v>0</v>
       </c>
       <c r="AI47">
-        <v>483</v>
+        <v>0</v>
       </c>
       <c r="AJ47">
-        <v>528</v>
+        <v>0</v>
       </c>
       <c r="AK47">
-        <v>505</v>
+        <v>0</v>
       </c>
       <c r="AL47">
-        <v>354</v>
+        <v>0</v>
       </c>
       <c r="AM47">
-        <v>490</v>
+        <v>0</v>
       </c>
       <c r="AN47">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="AO47">
-        <v>207</v>
+        <v>0</v>
       </c>
       <c r="AP47">
-        <v>176</v>
+        <v>0</v>
       </c>
       <c r="AQ47">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="AR47">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="AS47">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="AT47">
-        <v>455</v>
+        <v>0</v>
       </c>
       <c r="AU47">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AV47">
-        <v>295</v>
+        <v>0</v>
       </c>
       <c r="AW47">
-        <v>244</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:49" x14ac:dyDescent="0.3">
@@ -7239,145 +7242,145 @@
         <v>46</v>
       </c>
       <c r="C48">
-        <v>-34</v>
+        <v>0</v>
       </c>
       <c r="D48">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E48">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="F48">
-        <v>163</v>
+        <v>0</v>
       </c>
       <c r="G48">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H48">
-        <v>188</v>
+        <v>0</v>
       </c>
       <c r="I48">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="J48">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="K48">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L48">
-        <v>-17</v>
+        <v>0</v>
       </c>
       <c r="M48">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="N48">
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="O48">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="P48">
-        <v>-36</v>
+        <v>0</v>
       </c>
       <c r="Q48">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="R48">
-        <v>-30</v>
+        <v>0</v>
       </c>
       <c r="S48">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T48">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="U48">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="V48">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="W48">
-        <v>112</v>
+        <v>0</v>
       </c>
       <c r="X48">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="Y48">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="Z48">
-        <v>165</v>
+        <v>0</v>
       </c>
       <c r="AA48">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="AB48">
-        <v>119</v>
+        <v>0</v>
       </c>
       <c r="AC48">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="AD48">
-        <v>145</v>
+        <v>0</v>
       </c>
       <c r="AE48">
-        <v>158</v>
+        <v>0</v>
       </c>
       <c r="AF48">
-        <v>116</v>
+        <v>0</v>
       </c>
       <c r="AG48">
-        <v>247</v>
+        <v>0</v>
       </c>
       <c r="AH48">
-        <v>225</v>
+        <v>0</v>
       </c>
       <c r="AI48">
-        <v>268</v>
+        <v>0</v>
       </c>
       <c r="AJ48">
-        <v>313</v>
+        <v>0</v>
       </c>
       <c r="AK48">
-        <v>309</v>
+        <v>0</v>
       </c>
       <c r="AL48">
-        <v>182</v>
+        <v>0</v>
       </c>
       <c r="AM48">
-        <v>356</v>
+        <v>0</v>
       </c>
       <c r="AN48">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="AO48">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="AP48">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="AQ48">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AR48">
-        <v>-40</v>
+        <v>0</v>
       </c>
       <c r="AS48">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="AT48">
-        <v>271</v>
+        <v>0</v>
       </c>
       <c r="AU48">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AV48">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AW48">
-        <v>102</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:49" x14ac:dyDescent="0.3">
@@ -7385,145 +7388,145 @@
         <v>47</v>
       </c>
       <c r="C49">
-        <v>-34</v>
+        <v>0</v>
       </c>
       <c r="D49">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E49">
-        <v>106</v>
+        <v>0</v>
       </c>
       <c r="F49">
-        <v>217</v>
+        <v>0</v>
       </c>
       <c r="G49">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="H49">
-        <v>263</v>
+        <v>0</v>
       </c>
       <c r="I49">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="J49">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="K49">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="L49">
-        <v>-17</v>
+        <v>0</v>
       </c>
       <c r="M49">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="N49">
-        <v>106</v>
+        <v>0</v>
       </c>
       <c r="O49">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="P49">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="Q49">
-        <v>-17</v>
+        <v>0</v>
       </c>
       <c r="R49">
-        <v>-11</v>
+        <v>0</v>
       </c>
       <c r="S49">
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="T49">
-        <v>115</v>
+        <v>0</v>
       </c>
       <c r="U49">
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="V49">
-        <v>107</v>
+        <v>0</v>
       </c>
       <c r="W49">
-        <v>159</v>
+        <v>0</v>
       </c>
       <c r="X49">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="Y49">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="Z49">
-        <v>223</v>
+        <v>0</v>
       </c>
       <c r="AA49">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="AB49">
-        <v>162</v>
+        <v>0</v>
       </c>
       <c r="AC49">
-        <v>192</v>
+        <v>0</v>
       </c>
       <c r="AD49">
-        <v>196</v>
+        <v>0</v>
       </c>
       <c r="AE49">
-        <v>221</v>
+        <v>0</v>
       </c>
       <c r="AF49">
-        <v>195</v>
+        <v>0</v>
       </c>
       <c r="AG49">
-        <v>296</v>
+        <v>0</v>
       </c>
       <c r="AH49">
-        <v>231</v>
+        <v>0</v>
       </c>
       <c r="AI49">
-        <v>294</v>
+        <v>0</v>
       </c>
       <c r="AJ49">
-        <v>337</v>
+        <v>0</v>
       </c>
       <c r="AK49">
-        <v>326</v>
+        <v>0</v>
       </c>
       <c r="AL49">
-        <v>242</v>
+        <v>0</v>
       </c>
       <c r="AM49">
-        <v>386</v>
+        <v>0</v>
       </c>
       <c r="AN49">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AO49">
-        <v>131</v>
+        <v>0</v>
       </c>
       <c r="AP49">
-        <v>114</v>
+        <v>0</v>
       </c>
       <c r="AQ49">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="AR49">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="AS49">
-        <v>164</v>
+        <v>0</v>
       </c>
       <c r="AT49">
-        <v>297</v>
+        <v>0</v>
       </c>
       <c r="AU49">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="AV49">
-        <v>195</v>
+        <v>0</v>
       </c>
       <c r="AW49">
-        <v>99</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
